--- a/doc/regression-test/suites/03-user-role.xlsx
+++ b/doc/regression-test/suites/03-user-role.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Dev\Propel\propel\doc\regression-test\suites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9133D6-296E-44DD-8225-050E0E82D595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B87C2A-FB84-4898-986E-86CD9CA7972F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="10320" tabRatio="744" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -1058,16 +1058,10 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1075,6 +1069,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4069,8 +4069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1510635-E20C-4AD1-9756-3BB17945F573}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4231,8 +4231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59558529-F109-4122-99C6-22F7311C314B}">
   <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4255,14 +4255,14 @@
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" ht="49.5" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -4279,10 +4279,10 @@
       <c r="A5" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="31"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="21" t="s">
         <v>9</v>
       </c>
@@ -4299,10 +4299,10 @@
       <c r="A6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="31"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="21" t="s">
         <v>10</v>
       </c>
@@ -4319,10 +4319,10 @@
       <c r="A7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="31"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="21" t="s">
         <v>8</v>
       </c>
@@ -4337,17 +4337,17 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="31"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="33" t="str">
+      <c r="E8" s="31" t="str">
         <f>IF(E7&gt;0, "Fail",
     IF(E5&gt;0, "Not Executed", "Pass"))</f>
         <v>Not Executed</v>
       </c>
-      <c r="F8" s="34"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -4427,7 +4427,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="26" x14ac:dyDescent="0.35">
       <c r="A14" s="20">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -6490,8 +6490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03039438-4AD9-4D40-931F-AC03D1866474}">
   <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:F160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6514,14 +6514,14 @@
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" ht="49.5" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -6538,10 +6538,10 @@
       <c r="A5" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="31"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="21" t="s">
         <v>9</v>
       </c>
@@ -6558,10 +6558,10 @@
       <c r="A6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="31"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="21" t="s">
         <v>10</v>
       </c>
@@ -6578,10 +6578,10 @@
       <c r="A7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="31"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="21" t="s">
         <v>8</v>
       </c>
@@ -6596,17 +6596,17 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="31"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="33" t="str">
+      <c r="E8" s="31" t="str">
         <f>IF(E7&gt;0, "Fail",
     IF(E5&gt;0, "Not Executed", "Pass"))</f>
         <v>Not Executed</v>
       </c>
-      <c r="F8" s="34"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -8653,8 +8653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322CA305-6D4C-4009-9AC6-49A9CFC678F3}">
   <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:F160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8677,14 +8677,14 @@
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" ht="49.5" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -8701,10 +8701,10 @@
       <c r="A5" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="31"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="21" t="s">
         <v>9</v>
       </c>
@@ -8721,10 +8721,10 @@
       <c r="A6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="31"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="21" t="s">
         <v>10</v>
       </c>
@@ -8741,10 +8741,10 @@
       <c r="A7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="31"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="21" t="s">
         <v>8</v>
       </c>
@@ -8759,25 +8759,25 @@
     </row>
     <row r="8" spans="1:6" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="31"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="33" t="str">
+      <c r="E8" s="31" t="str">
         <f>IF(E7&gt;0, "Fail",
     IF(E5&gt;0, "Not Executed", "Pass"))</f>
         <v>Not Executed</v>
       </c>
-      <c r="F8" s="34"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="31"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="21"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
@@ -10826,7 +10826,7 @@
   <dimension ref="A1:F161"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10849,14 +10849,14 @@
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" ht="49.5" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -10873,10 +10873,10 @@
       <c r="A5" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="31"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="21" t="s">
         <v>9</v>
       </c>
@@ -10893,10 +10893,10 @@
       <c r="A6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="31"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="21" t="s">
         <v>10</v>
       </c>
@@ -10913,10 +10913,10 @@
       <c r="A7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="31"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="21" t="s">
         <v>8</v>
       </c>
@@ -10940,12 +10940,12 @@
       <c r="D8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="33" t="str">
+      <c r="E8" s="31" t="str">
         <f>IF(E7&gt;0, "Fail",
     IF(E5&gt;0, "Not Executed", "Pass"))</f>
         <v>Not Executed</v>
       </c>
-      <c r="F8" s="34"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
@@ -10956,8 +10956,8 @@
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="21"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">

--- a/doc/regression-test/suites/03-user-role.xlsx
+++ b/doc/regression-test/suites/03-user-role.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Dev\Propel\propel\doc\regression-test\suites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B87C2A-FB84-4898-986E-86CD9CA7972F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A547767E-C751-49C8-A01C-FBCD61657122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="10320" tabRatio="744" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="118">
   <si>
     <t>Description</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>Area</t>
-  </si>
-  <si>
-    <t>Not Executed</t>
   </si>
   <si>
     <t>Test Summary</t>
@@ -245,9 +242,6 @@
     <t>The "Executions in last 30 days" chart is displayed</t>
   </si>
   <si>
-    <t>Click in the the Add a Target button inside the Get Started card</t>
-  </si>
-  <si>
     <t>You are redirected back to the Home page.</t>
   </si>
   <si>
@@ -305,11 +299,6 @@
   </si>
   <si>
     <t>Last Errors card</t>
-  </si>
-  <si>
-    <t>This card shows the latest executions and the final status of each.
-Clicking in the link for the elapsed time since the execution started. You must be redirected to the execution log of that run.
-So please click in the link of any of the entries.</t>
   </si>
   <si>
     <t>You will see the execution log of the workflow.</t>
@@ -464,9 +453,6 @@
     <t>You must see a "Unauthorized access" message each time.</t>
   </si>
   <si>
-    <t>Go back to Home and Click on any of the links in the Latest errors card</t>
-  </si>
-  <si>
     <t>Go back and Click now in the run button at the left of any of the entries (Avoid the ones that are named "Test Runtime Parameters" or "Test Runtime Parameters (Duplicate)" because those workflows were already deleted in a previous test case)..</t>
   </si>
   <si>
@@ -584,6 +570,27 @@
 - Add, mange or view Users and credentials.
 - Upload or update Scripts.
 - Create or update Targets and Workflows.</t>
+  </si>
+  <si>
+    <t>Check in the Database if your user account exists and is not locked. Otherwise proceed to create it as indicated in the section "Create my User account" of the "01-user-login" test suite. 
+In the case the user is locked or the role is "Administrator" you can change the document in the "UserAccount" database collection by setting a null value for the property "lockedSince", and ensure the property "role" has the value "User". Then you can save the changes.</t>
+  </si>
+  <si>
+    <t>Click in the Propel icon in the nav bar to go to Home page. Then, click in the the Add a Target button inside the Get Started card</t>
+  </si>
+  <si>
+    <t>Go back to Home and Click on any of the links in the Last errors card</t>
+  </si>
+  <si>
+    <t>Go back to home page and check the "Latest activities" card. This card shows the latest executions and the final status of each.
+Clicking in the link for the elapsed time since the execution started. You must be redirected to the execution log of that run.
+So please click in the link of any of the entries.</t>
+  </si>
+  <si>
+    <t>Is a pass, but there are issues with the navigation when clicking the back button is not going back exactly to the last page visited</t>
+  </si>
+  <si>
+    <t>Not Executed</t>
   </si>
 </sst>
 </file>
@@ -4069,8 +4076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1510635-E20C-4AD1-9756-3BB17945F573}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4098,13 +4105,13 @@
         <v>17</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="B2" ca="1">IF(Summary[[#This Row],[Test Case Sheet name]]="", "", INDIRECT(_xlfn.CONCAT("'",A2, "'","!E8")))</f>
@@ -4118,13 +4125,13 @@
         <v>4</v>
       </c>
       <c r="K2" s="23" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L2" s="24"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B3" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">IF(Summary[[#This Row],[Test Case Sheet name]]="", "", INDIRECT(_xlfn.CONCAT("'",A3, "'","!E8")))</f>
@@ -4142,7 +4149,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" s="9" t="str" cm="1">
         <f t="array" aca="1" ref="B4" ca="1">IF(Summary[[#This Row],[Test Case Sheet name]]="", "", INDIRECT(_xlfn.CONCAT("'",A4, "'","!E8")))</f>
@@ -4160,7 +4167,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B5" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="B5" ca="1">IF(Summary[[#This Row],[Test Case Sheet name]]="", "", INDIRECT(_xlfn.CONCAT("'",A5, "'","!E8")))</f>
@@ -4231,8 +4238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59558529-F109-4122-99C6-22F7311C314B}">
   <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4256,7 +4263,7 @@
     </row>
     <row r="2" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -4275,12 +4282,12 @@
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
     </row>
-    <row r="5" spans="1:6" ht="82" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="94" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="21" t="s">
@@ -4297,10 +4304,10 @@
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>22</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="21" t="s">
@@ -4317,10 +4324,10 @@
     </row>
     <row r="7" spans="1:6" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="29" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>24</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="21" t="s">
@@ -4376,17 +4383,17 @@
         <v>1</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="18" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -4395,17 +4402,17 @@
         <v>2</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="18" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -4414,17 +4421,17 @@
         <v>3</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="18" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4433,17 +4440,17 @@
         <v>4</v>
       </c>
       <c r="B14" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>28</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>29</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="18" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -4452,17 +4459,17 @@
         <v>5</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="18" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="52" x14ac:dyDescent="0.35">
@@ -4471,17 +4478,17 @@
         <v>6</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="18" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="156" x14ac:dyDescent="0.35">
@@ -4490,36 +4497,36 @@
         <v>7</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="39" x14ac:dyDescent="0.35">
       <c r="A18" s="20">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="18" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -4528,17 +4535,17 @@
         <v>9</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="18" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4547,17 +4554,17 @@
         <v>10</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="18" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4566,17 +4573,17 @@
         <v>11</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="18" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4585,17 +4592,17 @@
         <v>12</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="18" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4604,17 +4611,17 @@
         <v>13</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="18" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4623,17 +4630,17 @@
         <v>14</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="18" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4642,36 +4649,36 @@
         <v>15</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="78" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="91" x14ac:dyDescent="0.35">
       <c r="A26" s="20">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="18" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -4680,17 +4687,17 @@
         <v>17</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E27" s="19"/>
       <c r="F27" s="18" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="78" x14ac:dyDescent="0.35">
@@ -4699,17 +4706,17 @@
         <v>18</v>
       </c>
       <c r="B28" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="17" t="s">
         <v>46</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>48</v>
       </c>
       <c r="E28" s="19"/>
       <c r="F28" s="18" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="65" x14ac:dyDescent="0.35">
@@ -4718,17 +4725,17 @@
         <v>19</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E29" s="19"/>
       <c r="F29" s="18" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="169" x14ac:dyDescent="0.35">
@@ -4737,17 +4744,19 @@
         <v>20</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="19"/>
+        <v>50</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>116</v>
+      </c>
       <c r="F30" s="18" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -4756,17 +4765,17 @@
         <v>21</v>
       </c>
       <c r="B31" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>38</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="18" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -4778,9 +4787,7 @@
       <c r="C32" s="7"/>
       <c r="D32" s="17"/>
       <c r="E32" s="19"/>
-      <c r="F32" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="20">
@@ -4791,9 +4798,7 @@
       <c r="C33" s="7"/>
       <c r="D33" s="17"/>
       <c r="E33" s="19"/>
-      <c r="F33" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="20">
@@ -4804,9 +4809,7 @@
       <c r="C34" s="7"/>
       <c r="D34" s="17"/>
       <c r="E34" s="19"/>
-      <c r="F34" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="20">
@@ -4817,9 +4820,7 @@
       <c r="C35" s="7"/>
       <c r="D35" s="17"/>
       <c r="E35" s="19"/>
-      <c r="F35" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="20">
@@ -4830,9 +4831,7 @@
       <c r="C36" s="7"/>
       <c r="D36" s="17"/>
       <c r="E36" s="19"/>
-      <c r="F36" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="20">
@@ -4843,9 +4842,7 @@
       <c r="C37" s="7"/>
       <c r="D37" s="17"/>
       <c r="E37" s="19"/>
-      <c r="F37" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="20">
@@ -4856,9 +4853,7 @@
       <c r="C38" s="7"/>
       <c r="D38" s="17"/>
       <c r="E38" s="19"/>
-      <c r="F38" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="20">
@@ -4869,9 +4864,7 @@
       <c r="C39" s="7"/>
       <c r="D39" s="17"/>
       <c r="E39" s="19"/>
-      <c r="F39" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="20">
@@ -4882,9 +4875,7 @@
       <c r="C40" s="7"/>
       <c r="D40" s="17"/>
       <c r="E40" s="19"/>
-      <c r="F40" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="20">
@@ -4895,9 +4886,7 @@
       <c r="C41" s="7"/>
       <c r="D41" s="17"/>
       <c r="E41" s="19"/>
-      <c r="F41" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F41" s="18"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="20">
@@ -4908,9 +4897,7 @@
       <c r="C42" s="7"/>
       <c r="D42" s="17"/>
       <c r="E42" s="19"/>
-      <c r="F42" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F42" s="18"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="20">
@@ -4921,9 +4908,7 @@
       <c r="C43" s="7"/>
       <c r="D43" s="17"/>
       <c r="E43" s="19"/>
-      <c r="F43" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F43" s="18"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="20">
@@ -4934,9 +4919,7 @@
       <c r="C44" s="7"/>
       <c r="D44" s="17"/>
       <c r="E44" s="19"/>
-      <c r="F44" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F44" s="18"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="20">
@@ -4947,9 +4930,7 @@
       <c r="C45" s="7"/>
       <c r="D45" s="17"/>
       <c r="E45" s="19"/>
-      <c r="F45" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F45" s="18"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="20">
@@ -4960,9 +4941,7 @@
       <c r="C46" s="7"/>
       <c r="D46" s="17"/>
       <c r="E46" s="19"/>
-      <c r="F46" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F46" s="18"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="20">
@@ -4973,9 +4952,7 @@
       <c r="C47" s="7"/>
       <c r="D47" s="17"/>
       <c r="E47" s="19"/>
-      <c r="F47" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F47" s="18"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="20">
@@ -4986,9 +4963,7 @@
       <c r="C48" s="7"/>
       <c r="D48" s="17"/>
       <c r="E48" s="19"/>
-      <c r="F48" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F48" s="18"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="20">
@@ -4999,9 +4974,7 @@
       <c r="C49" s="7"/>
       <c r="D49" s="17"/>
       <c r="E49" s="19"/>
-      <c r="F49" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F49" s="18"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="20">
@@ -5012,9 +4985,7 @@
       <c r="C50" s="7"/>
       <c r="D50" s="17"/>
       <c r="E50" s="19"/>
-      <c r="F50" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F50" s="18"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="20">
@@ -5025,9 +4996,7 @@
       <c r="C51" s="7"/>
       <c r="D51" s="17"/>
       <c r="E51" s="19"/>
-      <c r="F51" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F51" s="18"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="20">
@@ -5038,9 +5007,7 @@
       <c r="C52" s="7"/>
       <c r="D52" s="17"/>
       <c r="E52" s="19"/>
-      <c r="F52" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F52" s="18"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="20">
@@ -5051,9 +5018,7 @@
       <c r="C53" s="7"/>
       <c r="D53" s="17"/>
       <c r="E53" s="19"/>
-      <c r="F53" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F53" s="18"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="20">
@@ -5064,9 +5029,7 @@
       <c r="C54" s="7"/>
       <c r="D54" s="17"/>
       <c r="E54" s="19"/>
-      <c r="F54" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F54" s="18"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="20">
@@ -5077,9 +5040,7 @@
       <c r="C55" s="7"/>
       <c r="D55" s="17"/>
       <c r="E55" s="19"/>
-      <c r="F55" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F55" s="18"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="20">
@@ -5090,9 +5051,7 @@
       <c r="C56" s="7"/>
       <c r="D56" s="17"/>
       <c r="E56" s="19"/>
-      <c r="F56" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F56" s="18"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="20">
@@ -5103,9 +5062,7 @@
       <c r="C57" s="7"/>
       <c r="D57" s="17"/>
       <c r="E57" s="19"/>
-      <c r="F57" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F57" s="18"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="20">
@@ -5116,9 +5073,7 @@
       <c r="C58" s="7"/>
       <c r="D58" s="17"/>
       <c r="E58" s="19"/>
-      <c r="F58" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F58" s="18"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="20">
@@ -5129,9 +5084,7 @@
       <c r="C59" s="7"/>
       <c r="D59" s="17"/>
       <c r="E59" s="19"/>
-      <c r="F59" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F59" s="18"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="20">
@@ -5142,9 +5095,7 @@
       <c r="C60" s="7"/>
       <c r="D60" s="17"/>
       <c r="E60" s="19"/>
-      <c r="F60" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F60" s="18"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="20">
@@ -5155,9 +5106,7 @@
       <c r="C61" s="7"/>
       <c r="D61" s="17"/>
       <c r="E61" s="19"/>
-      <c r="F61" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F61" s="18"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="20">
@@ -5168,9 +5117,7 @@
       <c r="C62" s="7"/>
       <c r="D62" s="17"/>
       <c r="E62" s="19"/>
-      <c r="F62" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F62" s="18"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="20">
@@ -5181,9 +5128,7 @@
       <c r="C63" s="7"/>
       <c r="D63" s="17"/>
       <c r="E63" s="19"/>
-      <c r="F63" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F63" s="18"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="20">
@@ -5194,9 +5139,7 @@
       <c r="C64" s="7"/>
       <c r="D64" s="17"/>
       <c r="E64" s="19"/>
-      <c r="F64" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F64" s="18"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="20">
@@ -5207,9 +5150,7 @@
       <c r="C65" s="7"/>
       <c r="D65" s="17"/>
       <c r="E65" s="19"/>
-      <c r="F65" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F65" s="18"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="20">
@@ -5220,9 +5161,7 @@
       <c r="C66" s="7"/>
       <c r="D66" s="17"/>
       <c r="E66" s="19"/>
-      <c r="F66" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F66" s="18"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="20">
@@ -5233,9 +5172,7 @@
       <c r="C67" s="7"/>
       <c r="D67" s="17"/>
       <c r="E67" s="19"/>
-      <c r="F67" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F67" s="18"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="20">
@@ -5246,9 +5183,7 @@
       <c r="C68" s="7"/>
       <c r="D68" s="17"/>
       <c r="E68" s="19"/>
-      <c r="F68" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F68" s="18"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="20">
@@ -5259,9 +5194,7 @@
       <c r="C69" s="7"/>
       <c r="D69" s="17"/>
       <c r="E69" s="19"/>
-      <c r="F69" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F69" s="18"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="20">
@@ -5272,9 +5205,7 @@
       <c r="C70" s="7"/>
       <c r="D70" s="17"/>
       <c r="E70" s="19"/>
-      <c r="F70" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F70" s="18"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="20">
@@ -5285,9 +5216,7 @@
       <c r="C71" s="7"/>
       <c r="D71" s="17"/>
       <c r="E71" s="19"/>
-      <c r="F71" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F71" s="18"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="20">
@@ -5298,9 +5227,7 @@
       <c r="C72" s="7"/>
       <c r="D72" s="17"/>
       <c r="E72" s="19"/>
-      <c r="F72" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F72" s="18"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="20">
@@ -5311,9 +5238,7 @@
       <c r="C73" s="7"/>
       <c r="D73" s="17"/>
       <c r="E73" s="19"/>
-      <c r="F73" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F73" s="18"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="20">
@@ -5324,9 +5249,7 @@
       <c r="C74" s="7"/>
       <c r="D74" s="17"/>
       <c r="E74" s="19"/>
-      <c r="F74" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F74" s="18"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="20">
@@ -5337,9 +5260,7 @@
       <c r="C75" s="7"/>
       <c r="D75" s="17"/>
       <c r="E75" s="19"/>
-      <c r="F75" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F75" s="18"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="20">
@@ -5350,9 +5271,7 @@
       <c r="C76" s="7"/>
       <c r="D76" s="17"/>
       <c r="E76" s="19"/>
-      <c r="F76" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F76" s="18"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="20">
@@ -5363,9 +5282,7 @@
       <c r="C77" s="7"/>
       <c r="D77" s="17"/>
       <c r="E77" s="19"/>
-      <c r="F77" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F77" s="18"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="20">
@@ -5376,9 +5293,7 @@
       <c r="C78" s="7"/>
       <c r="D78" s="17"/>
       <c r="E78" s="19"/>
-      <c r="F78" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F78" s="18"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="20">
@@ -5389,9 +5304,7 @@
       <c r="C79" s="7"/>
       <c r="D79" s="17"/>
       <c r="E79" s="19"/>
-      <c r="F79" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F79" s="18"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="20">
@@ -5402,9 +5315,7 @@
       <c r="C80" s="7"/>
       <c r="D80" s="17"/>
       <c r="E80" s="19"/>
-      <c r="F80" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F80" s="18"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="20">
@@ -5415,9 +5326,7 @@
       <c r="C81" s="7"/>
       <c r="D81" s="17"/>
       <c r="E81" s="19"/>
-      <c r="F81" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F81" s="18"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="20">
@@ -5428,9 +5337,7 @@
       <c r="C82" s="7"/>
       <c r="D82" s="17"/>
       <c r="E82" s="19"/>
-      <c r="F82" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F82" s="18"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="20">
@@ -5441,9 +5348,7 @@
       <c r="C83" s="7"/>
       <c r="D83" s="17"/>
       <c r="E83" s="19"/>
-      <c r="F83" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F83" s="18"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="20">
@@ -5454,9 +5359,7 @@
       <c r="C84" s="7"/>
       <c r="D84" s="17"/>
       <c r="E84" s="19"/>
-      <c r="F84" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F84" s="18"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="20">
@@ -5467,9 +5370,7 @@
       <c r="C85" s="7"/>
       <c r="D85" s="17"/>
       <c r="E85" s="19"/>
-      <c r="F85" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F85" s="18"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="20">
@@ -5480,9 +5381,7 @@
       <c r="C86" s="7"/>
       <c r="D86" s="17"/>
       <c r="E86" s="19"/>
-      <c r="F86" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F86" s="18"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="20">
@@ -5493,9 +5392,7 @@
       <c r="C87" s="7"/>
       <c r="D87" s="17"/>
       <c r="E87" s="19"/>
-      <c r="F87" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F87" s="18"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="20">
@@ -5506,9 +5403,7 @@
       <c r="C88" s="7"/>
       <c r="D88" s="17"/>
       <c r="E88" s="19"/>
-      <c r="F88" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F88" s="18"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="20">
@@ -5519,9 +5414,7 @@
       <c r="C89" s="7"/>
       <c r="D89" s="17"/>
       <c r="E89" s="19"/>
-      <c r="F89" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F89" s="18"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="20">
@@ -5532,9 +5425,7 @@
       <c r="C90" s="7"/>
       <c r="D90" s="17"/>
       <c r="E90" s="19"/>
-      <c r="F90" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F90" s="18"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="20">
@@ -5545,9 +5436,7 @@
       <c r="C91" s="7"/>
       <c r="D91" s="17"/>
       <c r="E91" s="19"/>
-      <c r="F91" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F91" s="18"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="20">
@@ -5558,9 +5447,7 @@
       <c r="C92" s="7"/>
       <c r="D92" s="17"/>
       <c r="E92" s="19"/>
-      <c r="F92" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F92" s="18"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="20">
@@ -5571,9 +5458,7 @@
       <c r="C93" s="7"/>
       <c r="D93" s="17"/>
       <c r="E93" s="19"/>
-      <c r="F93" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F93" s="18"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="20">
@@ -5584,9 +5469,7 @@
       <c r="C94" s="7"/>
       <c r="D94" s="17"/>
       <c r="E94" s="19"/>
-      <c r="F94" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F94" s="18"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="20">
@@ -5597,9 +5480,7 @@
       <c r="C95" s="7"/>
       <c r="D95" s="17"/>
       <c r="E95" s="19"/>
-      <c r="F95" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F95" s="18"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="20">
@@ -5610,9 +5491,7 @@
       <c r="C96" s="7"/>
       <c r="D96" s="17"/>
       <c r="E96" s="19"/>
-      <c r="F96" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F96" s="18"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="20">
@@ -5623,9 +5502,7 @@
       <c r="C97" s="7"/>
       <c r="D97" s="17"/>
       <c r="E97" s="19"/>
-      <c r="F97" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F97" s="18"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="20">
@@ -5636,9 +5513,7 @@
       <c r="C98" s="7"/>
       <c r="D98" s="17"/>
       <c r="E98" s="19"/>
-      <c r="F98" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F98" s="18"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="20">
@@ -5649,9 +5524,7 @@
       <c r="C99" s="7"/>
       <c r="D99" s="17"/>
       <c r="E99" s="19"/>
-      <c r="F99" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F99" s="18"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="20">
@@ -5662,9 +5535,7 @@
       <c r="C100" s="7"/>
       <c r="D100" s="17"/>
       <c r="E100" s="19"/>
-      <c r="F100" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F100" s="18"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="20">
@@ -5675,9 +5546,7 @@
       <c r="C101" s="7"/>
       <c r="D101" s="17"/>
       <c r="E101" s="19"/>
-      <c r="F101" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F101" s="18"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="20">
@@ -5688,9 +5557,7 @@
       <c r="C102" s="7"/>
       <c r="D102" s="17"/>
       <c r="E102" s="19"/>
-      <c r="F102" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F102" s="18"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="20">
@@ -5701,9 +5568,7 @@
       <c r="C103" s="7"/>
       <c r="D103" s="17"/>
       <c r="E103" s="19"/>
-      <c r="F103" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F103" s="18"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="20">
@@ -5714,9 +5579,7 @@
       <c r="C104" s="7"/>
       <c r="D104" s="17"/>
       <c r="E104" s="19"/>
-      <c r="F104" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F104" s="18"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="20">
@@ -5727,9 +5590,7 @@
       <c r="C105" s="7"/>
       <c r="D105" s="17"/>
       <c r="E105" s="19"/>
-      <c r="F105" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F105" s="18"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="20">
@@ -5740,9 +5601,7 @@
       <c r="C106" s="7"/>
       <c r="D106" s="17"/>
       <c r="E106" s="19"/>
-      <c r="F106" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F106" s="18"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="20">
@@ -5753,9 +5612,7 @@
       <c r="C107" s="7"/>
       <c r="D107" s="17"/>
       <c r="E107" s="19"/>
-      <c r="F107" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F107" s="18"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="20">
@@ -5766,9 +5623,7 @@
       <c r="C108" s="7"/>
       <c r="D108" s="17"/>
       <c r="E108" s="19"/>
-      <c r="F108" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F108" s="18"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="20">
@@ -5779,9 +5634,7 @@
       <c r="C109" s="7"/>
       <c r="D109" s="17"/>
       <c r="E109" s="19"/>
-      <c r="F109" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F109" s="18"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="20">
@@ -5792,9 +5645,7 @@
       <c r="C110" s="7"/>
       <c r="D110" s="17"/>
       <c r="E110" s="19"/>
-      <c r="F110" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F110" s="18"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="20">
@@ -5805,9 +5656,7 @@
       <c r="C111" s="7"/>
       <c r="D111" s="17"/>
       <c r="E111" s="19"/>
-      <c r="F111" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F111" s="18"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="20">
@@ -5818,9 +5667,7 @@
       <c r="C112" s="7"/>
       <c r="D112" s="17"/>
       <c r="E112" s="19"/>
-      <c r="F112" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F112" s="18"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="20">
@@ -5831,9 +5678,7 @@
       <c r="C113" s="7"/>
       <c r="D113" s="17"/>
       <c r="E113" s="19"/>
-      <c r="F113" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F113" s="18"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="20">
@@ -5844,9 +5689,7 @@
       <c r="C114" s="7"/>
       <c r="D114" s="17"/>
       <c r="E114" s="19"/>
-      <c r="F114" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F114" s="18"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="20">
@@ -5857,9 +5700,7 @@
       <c r="C115" s="7"/>
       <c r="D115" s="17"/>
       <c r="E115" s="19"/>
-      <c r="F115" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F115" s="18"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="20">
@@ -5870,9 +5711,7 @@
       <c r="C116" s="7"/>
       <c r="D116" s="17"/>
       <c r="E116" s="19"/>
-      <c r="F116" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F116" s="18"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="20">
@@ -5883,9 +5722,7 @@
       <c r="C117" s="7"/>
       <c r="D117" s="17"/>
       <c r="E117" s="19"/>
-      <c r="F117" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F117" s="18"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="20">
@@ -5896,9 +5733,7 @@
       <c r="C118" s="7"/>
       <c r="D118" s="17"/>
       <c r="E118" s="19"/>
-      <c r="F118" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F118" s="18"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="20">
@@ -5909,9 +5744,7 @@
       <c r="C119" s="7"/>
       <c r="D119" s="17"/>
       <c r="E119" s="19"/>
-      <c r="F119" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F119" s="18"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="20">
@@ -5922,9 +5755,7 @@
       <c r="C120" s="7"/>
       <c r="D120" s="17"/>
       <c r="E120" s="19"/>
-      <c r="F120" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F120" s="18"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="20">
@@ -5935,9 +5766,7 @@
       <c r="C121" s="7"/>
       <c r="D121" s="17"/>
       <c r="E121" s="19"/>
-      <c r="F121" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F121" s="18"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="20">
@@ -5948,9 +5777,7 @@
       <c r="C122" s="7"/>
       <c r="D122" s="17"/>
       <c r="E122" s="19"/>
-      <c r="F122" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F122" s="18"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="20">
@@ -5961,9 +5788,7 @@
       <c r="C123" s="7"/>
       <c r="D123" s="17"/>
       <c r="E123" s="19"/>
-      <c r="F123" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F123" s="18"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="20">
@@ -5974,9 +5799,7 @@
       <c r="C124" s="7"/>
       <c r="D124" s="17"/>
       <c r="E124" s="19"/>
-      <c r="F124" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F124" s="18"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="20">
@@ -5987,9 +5810,7 @@
       <c r="C125" s="7"/>
       <c r="D125" s="17"/>
       <c r="E125" s="19"/>
-      <c r="F125" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F125" s="18"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="20">
@@ -6000,9 +5821,7 @@
       <c r="C126" s="7"/>
       <c r="D126" s="17"/>
       <c r="E126" s="19"/>
-      <c r="F126" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F126" s="18"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="20">
@@ -6013,9 +5832,7 @@
       <c r="C127" s="7"/>
       <c r="D127" s="17"/>
       <c r="E127" s="19"/>
-      <c r="F127" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F127" s="18"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="20">
@@ -6026,9 +5843,7 @@
       <c r="C128" s="7"/>
       <c r="D128" s="17"/>
       <c r="E128" s="19"/>
-      <c r="F128" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F128" s="18"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="20">
@@ -6039,9 +5854,7 @@
       <c r="C129" s="7"/>
       <c r="D129" s="17"/>
       <c r="E129" s="19"/>
-      <c r="F129" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F129" s="18"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="20">
@@ -6052,9 +5865,7 @@
       <c r="C130" s="7"/>
       <c r="D130" s="17"/>
       <c r="E130" s="19"/>
-      <c r="F130" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F130" s="18"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="20">
@@ -6065,9 +5876,7 @@
       <c r="C131" s="7"/>
       <c r="D131" s="17"/>
       <c r="E131" s="19"/>
-      <c r="F131" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F131" s="18"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="20">
@@ -6078,9 +5887,7 @@
       <c r="C132" s="7"/>
       <c r="D132" s="17"/>
       <c r="E132" s="19"/>
-      <c r="F132" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F132" s="18"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="20">
@@ -6091,9 +5898,7 @@
       <c r="C133" s="7"/>
       <c r="D133" s="17"/>
       <c r="E133" s="19"/>
-      <c r="F133" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F133" s="18"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="20">
@@ -6104,9 +5909,7 @@
       <c r="C134" s="7"/>
       <c r="D134" s="17"/>
       <c r="E134" s="19"/>
-      <c r="F134" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F134" s="18"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="20">
@@ -6117,9 +5920,7 @@
       <c r="C135" s="7"/>
       <c r="D135" s="17"/>
       <c r="E135" s="19"/>
-      <c r="F135" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F135" s="18"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="20">
@@ -6130,9 +5931,7 @@
       <c r="C136" s="7"/>
       <c r="D136" s="17"/>
       <c r="E136" s="19"/>
-      <c r="F136" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F136" s="18"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="20">
@@ -6143,9 +5942,7 @@
       <c r="C137" s="7"/>
       <c r="D137" s="17"/>
       <c r="E137" s="19"/>
-      <c r="F137" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F137" s="18"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="20">
@@ -6156,9 +5953,7 @@
       <c r="C138" s="7"/>
       <c r="D138" s="17"/>
       <c r="E138" s="19"/>
-      <c r="F138" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F138" s="18"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="20">
@@ -6169,9 +5964,7 @@
       <c r="C139" s="7"/>
       <c r="D139" s="17"/>
       <c r="E139" s="19"/>
-      <c r="F139" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F139" s="18"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="20">
@@ -6182,9 +5975,7 @@
       <c r="C140" s="7"/>
       <c r="D140" s="17"/>
       <c r="E140" s="19"/>
-      <c r="F140" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F140" s="18"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="20">
@@ -6195,9 +5986,7 @@
       <c r="C141" s="7"/>
       <c r="D141" s="17"/>
       <c r="E141" s="19"/>
-      <c r="F141" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F141" s="18"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="20">
@@ -6208,9 +5997,7 @@
       <c r="C142" s="7"/>
       <c r="D142" s="17"/>
       <c r="E142" s="19"/>
-      <c r="F142" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F142" s="18"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="20">
@@ -6221,9 +6008,7 @@
       <c r="C143" s="7"/>
       <c r="D143" s="17"/>
       <c r="E143" s="19"/>
-      <c r="F143" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F143" s="18"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="20">
@@ -6234,9 +6019,7 @@
       <c r="C144" s="7"/>
       <c r="D144" s="17"/>
       <c r="E144" s="19"/>
-      <c r="F144" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F144" s="18"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="20">
@@ -6247,9 +6030,7 @@
       <c r="C145" s="7"/>
       <c r="D145" s="17"/>
       <c r="E145" s="19"/>
-      <c r="F145" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F145" s="18"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="20">
@@ -6260,9 +6041,7 @@
       <c r="C146" s="7"/>
       <c r="D146" s="17"/>
       <c r="E146" s="19"/>
-      <c r="F146" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F146" s="18"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="20">
@@ -6273,9 +6052,7 @@
       <c r="C147" s="7"/>
       <c r="D147" s="17"/>
       <c r="E147" s="19"/>
-      <c r="F147" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F147" s="18"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="20">
@@ -6286,9 +6063,7 @@
       <c r="C148" s="7"/>
       <c r="D148" s="17"/>
       <c r="E148" s="19"/>
-      <c r="F148" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F148" s="18"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="20">
@@ -6299,9 +6074,7 @@
       <c r="C149" s="7"/>
       <c r="D149" s="17"/>
       <c r="E149" s="19"/>
-      <c r="F149" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F149" s="18"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="20">
@@ -6312,9 +6085,7 @@
       <c r="C150" s="7"/>
       <c r="D150" s="17"/>
       <c r="E150" s="19"/>
-      <c r="F150" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F150" s="18"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="20">
@@ -6325,9 +6096,7 @@
       <c r="C151" s="7"/>
       <c r="D151" s="17"/>
       <c r="E151" s="19"/>
-      <c r="F151" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F151" s="18"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="20">
@@ -6338,9 +6107,7 @@
       <c r="C152" s="7"/>
       <c r="D152" s="17"/>
       <c r="E152" s="19"/>
-      <c r="F152" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F152" s="18"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="20">
@@ -6351,9 +6118,7 @@
       <c r="C153" s="7"/>
       <c r="D153" s="17"/>
       <c r="E153" s="19"/>
-      <c r="F153" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F153" s="18"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="20">
@@ -6364,9 +6129,7 @@
       <c r="C154" s="7"/>
       <c r="D154" s="17"/>
       <c r="E154" s="19"/>
-      <c r="F154" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F154" s="18"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="20">
@@ -6377,9 +6140,7 @@
       <c r="C155" s="7"/>
       <c r="D155" s="17"/>
       <c r="E155" s="19"/>
-      <c r="F155" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F155" s="18"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="20">
@@ -6390,9 +6151,7 @@
       <c r="C156" s="7"/>
       <c r="D156" s="17"/>
       <c r="E156" s="19"/>
-      <c r="F156" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F156" s="18"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="20">
@@ -6403,9 +6162,7 @@
       <c r="C157" s="7"/>
       <c r="D157" s="17"/>
       <c r="E157" s="19"/>
-      <c r="F157" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F157" s="18"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="20">
@@ -6416,9 +6173,7 @@
       <c r="C158" s="7"/>
       <c r="D158" s="17"/>
       <c r="E158" s="19"/>
-      <c r="F158" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F158" s="18"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="20">
@@ -6429,9 +6184,7 @@
       <c r="C159" s="7"/>
       <c r="D159" s="17"/>
       <c r="E159" s="19"/>
-      <c r="F159" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F159" s="18"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="20">
@@ -6442,9 +6195,7 @@
       <c r="C160" s="7"/>
       <c r="D160" s="17"/>
       <c r="E160" s="19"/>
-      <c r="F160" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F160" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6490,8 +6241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03039438-4AD9-4D40-931F-AC03D1866474}">
   <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:F160"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6515,7 +6266,7 @@
     </row>
     <row r="2" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -6536,10 +6287,10 @@
     </row>
     <row r="5" spans="1:6" ht="82" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="21" t="s">
@@ -6556,10 +6307,10 @@
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>22</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="21" t="s">
@@ -6576,10 +6327,10 @@
     </row>
     <row r="7" spans="1:6" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="29" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>24</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="21" t="s">
@@ -6635,17 +6386,17 @@
         <v>1</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="18" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -6654,17 +6405,17 @@
         <v>2</v>
       </c>
       <c r="B12" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>57</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>60</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="18" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -6673,17 +6424,17 @@
         <v>3</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="18" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -6692,17 +6443,17 @@
         <v>4</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="18" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -6711,17 +6462,17 @@
         <v>5</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="18" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -6733,9 +6484,7 @@
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="20">
@@ -6746,9 +6495,7 @@
       <c r="C17" s="7"/>
       <c r="D17" s="17"/>
       <c r="E17" s="19"/>
-      <c r="F17" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="20">
@@ -6759,9 +6506,7 @@
       <c r="C18" s="7"/>
       <c r="D18" s="17"/>
       <c r="E18" s="19"/>
-      <c r="F18" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="20">
@@ -6772,9 +6517,7 @@
       <c r="C19" s="7"/>
       <c r="D19" s="17"/>
       <c r="E19" s="19"/>
-      <c r="F19" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="20">
@@ -6785,9 +6528,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="17"/>
       <c r="E20" s="19"/>
-      <c r="F20" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="20">
@@ -6798,9 +6539,7 @@
       <c r="C21" s="7"/>
       <c r="D21" s="17"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="20">
@@ -6811,9 +6550,7 @@
       <c r="C22" s="7"/>
       <c r="D22" s="17"/>
       <c r="E22" s="19"/>
-      <c r="F22" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="20">
@@ -6824,9 +6561,7 @@
       <c r="C23" s="7"/>
       <c r="D23" s="17"/>
       <c r="E23" s="19"/>
-      <c r="F23" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="20">
@@ -6837,9 +6572,7 @@
       <c r="C24" s="7"/>
       <c r="D24" s="17"/>
       <c r="E24" s="19"/>
-      <c r="F24" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="20">
@@ -6850,9 +6583,7 @@
       <c r="C25" s="7"/>
       <c r="D25" s="17"/>
       <c r="E25" s="19"/>
-      <c r="F25" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="20">
@@ -6863,9 +6594,7 @@
       <c r="C26" s="7"/>
       <c r="D26" s="17"/>
       <c r="E26" s="19"/>
-      <c r="F26" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="20">
@@ -6876,9 +6605,7 @@
       <c r="C27" s="7"/>
       <c r="D27" s="17"/>
       <c r="E27" s="19"/>
-      <c r="F27" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="20">
@@ -6889,9 +6616,7 @@
       <c r="C28" s="7"/>
       <c r="D28" s="17"/>
       <c r="E28" s="19"/>
-      <c r="F28" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="20">
@@ -6902,9 +6627,7 @@
       <c r="C29" s="7"/>
       <c r="D29" s="17"/>
       <c r="E29" s="19"/>
-      <c r="F29" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="20">
@@ -6915,9 +6638,7 @@
       <c r="C30" s="7"/>
       <c r="D30" s="17"/>
       <c r="E30" s="19"/>
-      <c r="F30" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="20">
@@ -6928,9 +6649,7 @@
       <c r="C31" s="7"/>
       <c r="D31" s="17"/>
       <c r="E31" s="19"/>
-      <c r="F31" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="20">
@@ -6941,9 +6660,7 @@
       <c r="C32" s="7"/>
       <c r="D32" s="17"/>
       <c r="E32" s="19"/>
-      <c r="F32" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="20">
@@ -6954,9 +6671,7 @@
       <c r="C33" s="7"/>
       <c r="D33" s="17"/>
       <c r="E33" s="19"/>
-      <c r="F33" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="20">
@@ -6967,9 +6682,7 @@
       <c r="C34" s="7"/>
       <c r="D34" s="17"/>
       <c r="E34" s="19"/>
-      <c r="F34" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="20">
@@ -6980,9 +6693,7 @@
       <c r="C35" s="7"/>
       <c r="D35" s="17"/>
       <c r="E35" s="19"/>
-      <c r="F35" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="20">
@@ -6993,9 +6704,7 @@
       <c r="C36" s="7"/>
       <c r="D36" s="17"/>
       <c r="E36" s="19"/>
-      <c r="F36" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="20">
@@ -7006,9 +6715,7 @@
       <c r="C37" s="7"/>
       <c r="D37" s="17"/>
       <c r="E37" s="19"/>
-      <c r="F37" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="20">
@@ -7019,9 +6726,7 @@
       <c r="C38" s="7"/>
       <c r="D38" s="17"/>
       <c r="E38" s="19"/>
-      <c r="F38" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="20">
@@ -7032,9 +6737,7 @@
       <c r="C39" s="7"/>
       <c r="D39" s="17"/>
       <c r="E39" s="19"/>
-      <c r="F39" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="20">
@@ -7045,9 +6748,7 @@
       <c r="C40" s="7"/>
       <c r="D40" s="17"/>
       <c r="E40" s="19"/>
-      <c r="F40" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="20">
@@ -7058,9 +6759,7 @@
       <c r="C41" s="7"/>
       <c r="D41" s="17"/>
       <c r="E41" s="19"/>
-      <c r="F41" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F41" s="18"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="20">
@@ -7071,9 +6770,7 @@
       <c r="C42" s="7"/>
       <c r="D42" s="17"/>
       <c r="E42" s="19"/>
-      <c r="F42" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F42" s="18"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="20">
@@ -7084,9 +6781,7 @@
       <c r="C43" s="7"/>
       <c r="D43" s="17"/>
       <c r="E43" s="19"/>
-      <c r="F43" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F43" s="18"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="20">
@@ -7097,9 +6792,7 @@
       <c r="C44" s="7"/>
       <c r="D44" s="17"/>
       <c r="E44" s="19"/>
-      <c r="F44" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F44" s="18"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="20">
@@ -7110,9 +6803,7 @@
       <c r="C45" s="7"/>
       <c r="D45" s="17"/>
       <c r="E45" s="19"/>
-      <c r="F45" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F45" s="18"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="20">
@@ -7123,9 +6814,7 @@
       <c r="C46" s="7"/>
       <c r="D46" s="17"/>
       <c r="E46" s="19"/>
-      <c r="F46" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F46" s="18"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="20">
@@ -7136,9 +6825,7 @@
       <c r="C47" s="7"/>
       <c r="D47" s="17"/>
       <c r="E47" s="19"/>
-      <c r="F47" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F47" s="18"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="20">
@@ -7149,9 +6836,7 @@
       <c r="C48" s="7"/>
       <c r="D48" s="17"/>
       <c r="E48" s="19"/>
-      <c r="F48" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F48" s="18"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="20">
@@ -7162,9 +6847,7 @@
       <c r="C49" s="7"/>
       <c r="D49" s="17"/>
       <c r="E49" s="19"/>
-      <c r="F49" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F49" s="18"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="20">
@@ -7175,9 +6858,7 @@
       <c r="C50" s="7"/>
       <c r="D50" s="17"/>
       <c r="E50" s="19"/>
-      <c r="F50" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F50" s="18"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="20">
@@ -7188,9 +6869,7 @@
       <c r="C51" s="7"/>
       <c r="D51" s="17"/>
       <c r="E51" s="19"/>
-      <c r="F51" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F51" s="18"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="20">
@@ -7201,9 +6880,7 @@
       <c r="C52" s="7"/>
       <c r="D52" s="17"/>
       <c r="E52" s="19"/>
-      <c r="F52" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F52" s="18"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="20">
@@ -7214,9 +6891,7 @@
       <c r="C53" s="7"/>
       <c r="D53" s="17"/>
       <c r="E53" s="19"/>
-      <c r="F53" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F53" s="18"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="20">
@@ -7227,9 +6902,7 @@
       <c r="C54" s="7"/>
       <c r="D54" s="17"/>
       <c r="E54" s="19"/>
-      <c r="F54" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F54" s="18"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="20">
@@ -7240,9 +6913,7 @@
       <c r="C55" s="7"/>
       <c r="D55" s="17"/>
       <c r="E55" s="19"/>
-      <c r="F55" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F55" s="18"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="20">
@@ -7253,9 +6924,7 @@
       <c r="C56" s="7"/>
       <c r="D56" s="17"/>
       <c r="E56" s="19"/>
-      <c r="F56" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F56" s="18"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="20">
@@ -7266,9 +6935,7 @@
       <c r="C57" s="7"/>
       <c r="D57" s="17"/>
       <c r="E57" s="19"/>
-      <c r="F57" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F57" s="18"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="20">
@@ -7279,9 +6946,7 @@
       <c r="C58" s="7"/>
       <c r="D58" s="17"/>
       <c r="E58" s="19"/>
-      <c r="F58" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F58" s="18"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="20">
@@ -7292,9 +6957,7 @@
       <c r="C59" s="7"/>
       <c r="D59" s="17"/>
       <c r="E59" s="19"/>
-      <c r="F59" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F59" s="18"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="20">
@@ -7305,9 +6968,7 @@
       <c r="C60" s="7"/>
       <c r="D60" s="17"/>
       <c r="E60" s="19"/>
-      <c r="F60" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F60" s="18"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="20">
@@ -7318,9 +6979,7 @@
       <c r="C61" s="7"/>
       <c r="D61" s="17"/>
       <c r="E61" s="19"/>
-      <c r="F61" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F61" s="18"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="20">
@@ -7331,9 +6990,7 @@
       <c r="C62" s="7"/>
       <c r="D62" s="17"/>
       <c r="E62" s="19"/>
-      <c r="F62" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F62" s="18"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="20">
@@ -7344,9 +7001,7 @@
       <c r="C63" s="7"/>
       <c r="D63" s="17"/>
       <c r="E63" s="19"/>
-      <c r="F63" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F63" s="18"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="20">
@@ -7357,9 +7012,7 @@
       <c r="C64" s="7"/>
       <c r="D64" s="17"/>
       <c r="E64" s="19"/>
-      <c r="F64" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F64" s="18"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="20">
@@ -7370,9 +7023,7 @@
       <c r="C65" s="7"/>
       <c r="D65" s="17"/>
       <c r="E65" s="19"/>
-      <c r="F65" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F65" s="18"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="20">
@@ -7383,9 +7034,7 @@
       <c r="C66" s="7"/>
       <c r="D66" s="17"/>
       <c r="E66" s="19"/>
-      <c r="F66" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F66" s="18"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="20">
@@ -7396,9 +7045,7 @@
       <c r="C67" s="7"/>
       <c r="D67" s="17"/>
       <c r="E67" s="19"/>
-      <c r="F67" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F67" s="18"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="20">
@@ -7409,9 +7056,7 @@
       <c r="C68" s="7"/>
       <c r="D68" s="17"/>
       <c r="E68" s="19"/>
-      <c r="F68" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F68" s="18"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="20">
@@ -7422,9 +7067,7 @@
       <c r="C69" s="7"/>
       <c r="D69" s="17"/>
       <c r="E69" s="19"/>
-      <c r="F69" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F69" s="18"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="20">
@@ -7435,9 +7078,7 @@
       <c r="C70" s="7"/>
       <c r="D70" s="17"/>
       <c r="E70" s="19"/>
-      <c r="F70" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F70" s="18"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="20">
@@ -7448,9 +7089,7 @@
       <c r="C71" s="7"/>
       <c r="D71" s="17"/>
       <c r="E71" s="19"/>
-      <c r="F71" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F71" s="18"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="20">
@@ -7461,9 +7100,7 @@
       <c r="C72" s="7"/>
       <c r="D72" s="17"/>
       <c r="E72" s="19"/>
-      <c r="F72" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F72" s="18"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="20">
@@ -7474,9 +7111,7 @@
       <c r="C73" s="7"/>
       <c r="D73" s="17"/>
       <c r="E73" s="19"/>
-      <c r="F73" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F73" s="18"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="20">
@@ -7487,9 +7122,7 @@
       <c r="C74" s="7"/>
       <c r="D74" s="17"/>
       <c r="E74" s="19"/>
-      <c r="F74" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F74" s="18"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="20">
@@ -7500,9 +7133,7 @@
       <c r="C75" s="7"/>
       <c r="D75" s="17"/>
       <c r="E75" s="19"/>
-      <c r="F75" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F75" s="18"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="20">
@@ -7513,9 +7144,7 @@
       <c r="C76" s="7"/>
       <c r="D76" s="17"/>
       <c r="E76" s="19"/>
-      <c r="F76" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F76" s="18"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="20">
@@ -7526,9 +7155,7 @@
       <c r="C77" s="7"/>
       <c r="D77" s="17"/>
       <c r="E77" s="19"/>
-      <c r="F77" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F77" s="18"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="20">
@@ -7539,9 +7166,7 @@
       <c r="C78" s="7"/>
       <c r="D78" s="17"/>
       <c r="E78" s="19"/>
-      <c r="F78" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F78" s="18"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="20">
@@ -7552,9 +7177,7 @@
       <c r="C79" s="7"/>
       <c r="D79" s="17"/>
       <c r="E79" s="19"/>
-      <c r="F79" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F79" s="18"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="20">
@@ -7565,9 +7188,7 @@
       <c r="C80" s="7"/>
       <c r="D80" s="17"/>
       <c r="E80" s="19"/>
-      <c r="F80" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F80" s="18"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="20">
@@ -7578,9 +7199,7 @@
       <c r="C81" s="7"/>
       <c r="D81" s="17"/>
       <c r="E81" s="19"/>
-      <c r="F81" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F81" s="18"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="20">
@@ -7591,9 +7210,7 @@
       <c r="C82" s="7"/>
       <c r="D82" s="17"/>
       <c r="E82" s="19"/>
-      <c r="F82" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F82" s="18"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="20">
@@ -7604,9 +7221,7 @@
       <c r="C83" s="7"/>
       <c r="D83" s="17"/>
       <c r="E83" s="19"/>
-      <c r="F83" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F83" s="18"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="20">
@@ -7617,9 +7232,7 @@
       <c r="C84" s="7"/>
       <c r="D84" s="17"/>
       <c r="E84" s="19"/>
-      <c r="F84" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F84" s="18"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="20">
@@ -7630,9 +7243,7 @@
       <c r="C85" s="7"/>
       <c r="D85" s="17"/>
       <c r="E85" s="19"/>
-      <c r="F85" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F85" s="18"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="20">
@@ -7643,9 +7254,7 @@
       <c r="C86" s="7"/>
       <c r="D86" s="17"/>
       <c r="E86" s="19"/>
-      <c r="F86" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F86" s="18"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="20">
@@ -7656,9 +7265,7 @@
       <c r="C87" s="7"/>
       <c r="D87" s="17"/>
       <c r="E87" s="19"/>
-      <c r="F87" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F87" s="18"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="20">
@@ -7669,9 +7276,7 @@
       <c r="C88" s="7"/>
       <c r="D88" s="17"/>
       <c r="E88" s="19"/>
-      <c r="F88" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F88" s="18"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="20">
@@ -7682,9 +7287,7 @@
       <c r="C89" s="7"/>
       <c r="D89" s="17"/>
       <c r="E89" s="19"/>
-      <c r="F89" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F89" s="18"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="20">
@@ -7695,9 +7298,7 @@
       <c r="C90" s="7"/>
       <c r="D90" s="17"/>
       <c r="E90" s="19"/>
-      <c r="F90" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F90" s="18"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="20">
@@ -7708,9 +7309,7 @@
       <c r="C91" s="7"/>
       <c r="D91" s="17"/>
       <c r="E91" s="19"/>
-      <c r="F91" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F91" s="18"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="20">
@@ -7721,9 +7320,7 @@
       <c r="C92" s="7"/>
       <c r="D92" s="17"/>
       <c r="E92" s="19"/>
-      <c r="F92" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F92" s="18"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="20">
@@ -7734,9 +7331,7 @@
       <c r="C93" s="7"/>
       <c r="D93" s="17"/>
       <c r="E93" s="19"/>
-      <c r="F93" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F93" s="18"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="20">
@@ -7747,9 +7342,7 @@
       <c r="C94" s="7"/>
       <c r="D94" s="17"/>
       <c r="E94" s="19"/>
-      <c r="F94" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F94" s="18"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="20">
@@ -7760,9 +7353,7 @@
       <c r="C95" s="7"/>
       <c r="D95" s="17"/>
       <c r="E95" s="19"/>
-      <c r="F95" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F95" s="18"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="20">
@@ -7773,9 +7364,7 @@
       <c r="C96" s="7"/>
       <c r="D96" s="17"/>
       <c r="E96" s="19"/>
-      <c r="F96" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F96" s="18"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="20">
@@ -7786,9 +7375,7 @@
       <c r="C97" s="7"/>
       <c r="D97" s="17"/>
       <c r="E97" s="19"/>
-      <c r="F97" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F97" s="18"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="20">
@@ -7799,9 +7386,7 @@
       <c r="C98" s="7"/>
       <c r="D98" s="17"/>
       <c r="E98" s="19"/>
-      <c r="F98" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F98" s="18"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="20">
@@ -7812,9 +7397,7 @@
       <c r="C99" s="7"/>
       <c r="D99" s="17"/>
       <c r="E99" s="19"/>
-      <c r="F99" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F99" s="18"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="20">
@@ -7825,9 +7408,7 @@
       <c r="C100" s="7"/>
       <c r="D100" s="17"/>
       <c r="E100" s="19"/>
-      <c r="F100" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F100" s="18"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="20">
@@ -7838,9 +7419,7 @@
       <c r="C101" s="7"/>
       <c r="D101" s="17"/>
       <c r="E101" s="19"/>
-      <c r="F101" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F101" s="18"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="20">
@@ -7851,9 +7430,7 @@
       <c r="C102" s="7"/>
       <c r="D102" s="17"/>
       <c r="E102" s="19"/>
-      <c r="F102" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F102" s="18"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="20">
@@ -7864,9 +7441,7 @@
       <c r="C103" s="7"/>
       <c r="D103" s="17"/>
       <c r="E103" s="19"/>
-      <c r="F103" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F103" s="18"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="20">
@@ -7877,9 +7452,7 @@
       <c r="C104" s="7"/>
       <c r="D104" s="17"/>
       <c r="E104" s="19"/>
-      <c r="F104" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F104" s="18"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="20">
@@ -7890,9 +7463,7 @@
       <c r="C105" s="7"/>
       <c r="D105" s="17"/>
       <c r="E105" s="19"/>
-      <c r="F105" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F105" s="18"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="20">
@@ -7903,9 +7474,7 @@
       <c r="C106" s="7"/>
       <c r="D106" s="17"/>
       <c r="E106" s="19"/>
-      <c r="F106" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F106" s="18"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="20">
@@ -7916,9 +7485,7 @@
       <c r="C107" s="7"/>
       <c r="D107" s="17"/>
       <c r="E107" s="19"/>
-      <c r="F107" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F107" s="18"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="20">
@@ -7929,9 +7496,7 @@
       <c r="C108" s="7"/>
       <c r="D108" s="17"/>
       <c r="E108" s="19"/>
-      <c r="F108" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F108" s="18"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="20">
@@ -7942,9 +7507,7 @@
       <c r="C109" s="7"/>
       <c r="D109" s="17"/>
       <c r="E109" s="19"/>
-      <c r="F109" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F109" s="18"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="20">
@@ -7955,9 +7518,7 @@
       <c r="C110" s="7"/>
       <c r="D110" s="17"/>
       <c r="E110" s="19"/>
-      <c r="F110" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F110" s="18"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="20">
@@ -7968,9 +7529,7 @@
       <c r="C111" s="7"/>
       <c r="D111" s="17"/>
       <c r="E111" s="19"/>
-      <c r="F111" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F111" s="18"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="20">
@@ -7981,9 +7540,7 @@
       <c r="C112" s="7"/>
       <c r="D112" s="17"/>
       <c r="E112" s="19"/>
-      <c r="F112" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F112" s="18"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="20">
@@ -7994,9 +7551,7 @@
       <c r="C113" s="7"/>
       <c r="D113" s="17"/>
       <c r="E113" s="19"/>
-      <c r="F113" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F113" s="18"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="20">
@@ -8007,9 +7562,7 @@
       <c r="C114" s="7"/>
       <c r="D114" s="17"/>
       <c r="E114" s="19"/>
-      <c r="F114" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F114" s="18"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="20">
@@ -8020,9 +7573,7 @@
       <c r="C115" s="7"/>
       <c r="D115" s="17"/>
       <c r="E115" s="19"/>
-      <c r="F115" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F115" s="18"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="20">
@@ -8033,9 +7584,7 @@
       <c r="C116" s="7"/>
       <c r="D116" s="17"/>
       <c r="E116" s="19"/>
-      <c r="F116" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F116" s="18"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="20">
@@ -8046,9 +7595,7 @@
       <c r="C117" s="7"/>
       <c r="D117" s="17"/>
       <c r="E117" s="19"/>
-      <c r="F117" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F117" s="18"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="20">
@@ -8059,9 +7606,7 @@
       <c r="C118" s="7"/>
       <c r="D118" s="17"/>
       <c r="E118" s="19"/>
-      <c r="F118" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F118" s="18"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="20">
@@ -8072,9 +7617,7 @@
       <c r="C119" s="7"/>
       <c r="D119" s="17"/>
       <c r="E119" s="19"/>
-      <c r="F119" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F119" s="18"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="20">
@@ -8085,9 +7628,7 @@
       <c r="C120" s="7"/>
       <c r="D120" s="17"/>
       <c r="E120" s="19"/>
-      <c r="F120" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F120" s="18"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="20">
@@ -8098,9 +7639,7 @@
       <c r="C121" s="7"/>
       <c r="D121" s="17"/>
       <c r="E121" s="19"/>
-      <c r="F121" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F121" s="18"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="20">
@@ -8111,9 +7650,7 @@
       <c r="C122" s="7"/>
       <c r="D122" s="17"/>
       <c r="E122" s="19"/>
-      <c r="F122" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F122" s="18"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="20">
@@ -8124,9 +7661,7 @@
       <c r="C123" s="7"/>
       <c r="D123" s="17"/>
       <c r="E123" s="19"/>
-      <c r="F123" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F123" s="18"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="20">
@@ -8137,9 +7672,7 @@
       <c r="C124" s="7"/>
       <c r="D124" s="17"/>
       <c r="E124" s="19"/>
-      <c r="F124" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F124" s="18"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="20">
@@ -8150,9 +7683,7 @@
       <c r="C125" s="7"/>
       <c r="D125" s="17"/>
       <c r="E125" s="19"/>
-      <c r="F125" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F125" s="18"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="20">
@@ -8163,9 +7694,7 @@
       <c r="C126" s="7"/>
       <c r="D126" s="17"/>
       <c r="E126" s="19"/>
-      <c r="F126" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F126" s="18"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="20">
@@ -8176,9 +7705,7 @@
       <c r="C127" s="7"/>
       <c r="D127" s="17"/>
       <c r="E127" s="19"/>
-      <c r="F127" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F127" s="18"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="20">
@@ -8189,9 +7716,7 @@
       <c r="C128" s="7"/>
       <c r="D128" s="17"/>
       <c r="E128" s="19"/>
-      <c r="F128" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F128" s="18"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="20">
@@ -8202,9 +7727,7 @@
       <c r="C129" s="7"/>
       <c r="D129" s="17"/>
       <c r="E129" s="19"/>
-      <c r="F129" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F129" s="18"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="20">
@@ -8215,9 +7738,7 @@
       <c r="C130" s="7"/>
       <c r="D130" s="17"/>
       <c r="E130" s="19"/>
-      <c r="F130" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F130" s="18"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="20">
@@ -8228,9 +7749,7 @@
       <c r="C131" s="7"/>
       <c r="D131" s="17"/>
       <c r="E131" s="19"/>
-      <c r="F131" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F131" s="18"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="20">
@@ -8241,9 +7760,7 @@
       <c r="C132" s="7"/>
       <c r="D132" s="17"/>
       <c r="E132" s="19"/>
-      <c r="F132" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F132" s="18"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="20">
@@ -8254,9 +7771,7 @@
       <c r="C133" s="7"/>
       <c r="D133" s="17"/>
       <c r="E133" s="19"/>
-      <c r="F133" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F133" s="18"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="20">
@@ -8267,9 +7782,7 @@
       <c r="C134" s="7"/>
       <c r="D134" s="17"/>
       <c r="E134" s="19"/>
-      <c r="F134" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F134" s="18"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="20">
@@ -8280,9 +7793,7 @@
       <c r="C135" s="7"/>
       <c r="D135" s="17"/>
       <c r="E135" s="19"/>
-      <c r="F135" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F135" s="18"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="20">
@@ -8293,9 +7804,7 @@
       <c r="C136" s="7"/>
       <c r="D136" s="17"/>
       <c r="E136" s="19"/>
-      <c r="F136" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F136" s="18"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="20">
@@ -8306,9 +7815,7 @@
       <c r="C137" s="7"/>
       <c r="D137" s="17"/>
       <c r="E137" s="19"/>
-      <c r="F137" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F137" s="18"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="20">
@@ -8319,9 +7826,7 @@
       <c r="C138" s="7"/>
       <c r="D138" s="17"/>
       <c r="E138" s="19"/>
-      <c r="F138" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F138" s="18"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="20">
@@ -8332,9 +7837,7 @@
       <c r="C139" s="7"/>
       <c r="D139" s="17"/>
       <c r="E139" s="19"/>
-      <c r="F139" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F139" s="18"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="20">
@@ -8345,9 +7848,7 @@
       <c r="C140" s="7"/>
       <c r="D140" s="17"/>
       <c r="E140" s="19"/>
-      <c r="F140" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F140" s="18"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="20">
@@ -8358,9 +7859,7 @@
       <c r="C141" s="7"/>
       <c r="D141" s="17"/>
       <c r="E141" s="19"/>
-      <c r="F141" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F141" s="18"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="20">
@@ -8371,9 +7870,7 @@
       <c r="C142" s="7"/>
       <c r="D142" s="17"/>
       <c r="E142" s="19"/>
-      <c r="F142" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F142" s="18"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="20">
@@ -8384,9 +7881,7 @@
       <c r="C143" s="7"/>
       <c r="D143" s="17"/>
       <c r="E143" s="19"/>
-      <c r="F143" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F143" s="18"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="20">
@@ -8397,9 +7892,7 @@
       <c r="C144" s="7"/>
       <c r="D144" s="17"/>
       <c r="E144" s="19"/>
-      <c r="F144" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F144" s="18"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="20">
@@ -8410,9 +7903,7 @@
       <c r="C145" s="7"/>
       <c r="D145" s="17"/>
       <c r="E145" s="19"/>
-      <c r="F145" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F145" s="18"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="20">
@@ -8423,9 +7914,7 @@
       <c r="C146" s="7"/>
       <c r="D146" s="17"/>
       <c r="E146" s="19"/>
-      <c r="F146" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F146" s="18"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="20">
@@ -8436,9 +7925,7 @@
       <c r="C147" s="7"/>
       <c r="D147" s="17"/>
       <c r="E147" s="19"/>
-      <c r="F147" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F147" s="18"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="20">
@@ -8449,9 +7936,7 @@
       <c r="C148" s="7"/>
       <c r="D148" s="17"/>
       <c r="E148" s="19"/>
-      <c r="F148" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F148" s="18"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="20">
@@ -8462,9 +7947,7 @@
       <c r="C149" s="7"/>
       <c r="D149" s="17"/>
       <c r="E149" s="19"/>
-      <c r="F149" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F149" s="18"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="20">
@@ -8475,9 +7958,7 @@
       <c r="C150" s="7"/>
       <c r="D150" s="17"/>
       <c r="E150" s="19"/>
-      <c r="F150" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F150" s="18"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="20">
@@ -8488,9 +7969,7 @@
       <c r="C151" s="7"/>
       <c r="D151" s="17"/>
       <c r="E151" s="19"/>
-      <c r="F151" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F151" s="18"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="20">
@@ -8501,9 +7980,7 @@
       <c r="C152" s="7"/>
       <c r="D152" s="17"/>
       <c r="E152" s="19"/>
-      <c r="F152" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F152" s="18"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="20">
@@ -8514,9 +7991,7 @@
       <c r="C153" s="7"/>
       <c r="D153" s="17"/>
       <c r="E153" s="19"/>
-      <c r="F153" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F153" s="18"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="20">
@@ -8527,9 +8002,7 @@
       <c r="C154" s="7"/>
       <c r="D154" s="17"/>
       <c r="E154" s="19"/>
-      <c r="F154" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F154" s="18"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="20">
@@ -8540,9 +8013,7 @@
       <c r="C155" s="7"/>
       <c r="D155" s="17"/>
       <c r="E155" s="19"/>
-      <c r="F155" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F155" s="18"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="20">
@@ -8553,9 +8024,7 @@
       <c r="C156" s="7"/>
       <c r="D156" s="17"/>
       <c r="E156" s="19"/>
-      <c r="F156" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F156" s="18"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="20">
@@ -8566,9 +8035,7 @@
       <c r="C157" s="7"/>
       <c r="D157" s="17"/>
       <c r="E157" s="19"/>
-      <c r="F157" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F157" s="18"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="20">
@@ -8579,9 +8046,7 @@
       <c r="C158" s="7"/>
       <c r="D158" s="17"/>
       <c r="E158" s="19"/>
-      <c r="F158" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F158" s="18"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="20">
@@ -8592,9 +8057,7 @@
       <c r="C159" s="7"/>
       <c r="D159" s="17"/>
       <c r="E159" s="19"/>
-      <c r="F159" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F159" s="18"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="20">
@@ -8605,9 +8068,7 @@
       <c r="C160" s="7"/>
       <c r="D160" s="17"/>
       <c r="E160" s="19"/>
-      <c r="F160" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F160" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8653,8 +8114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322CA305-6D4C-4009-9AC6-49A9CFC678F3}">
   <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:F160"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8678,7 +8139,7 @@
     </row>
     <row r="2" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -8699,10 +8160,10 @@
     </row>
     <row r="5" spans="1:6" ht="82" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="21" t="s">
@@ -8719,10 +8180,10 @@
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>22</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="21" t="s">
@@ -8739,10 +8200,10 @@
     </row>
     <row r="7" spans="1:6" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="29" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>24</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="21" t="s">
@@ -8805,17 +8266,17 @@
         <v>1</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="18" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -8824,17 +8285,17 @@
         <v>2</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="18" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -8843,17 +8304,17 @@
         <v>3</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="18" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -8862,17 +8323,17 @@
         <v>4</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="18" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -8881,17 +8342,17 @@
         <v>5</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="18" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -8903,9 +8364,7 @@
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="20">
@@ -8916,9 +8375,7 @@
       <c r="C17" s="7"/>
       <c r="D17" s="17"/>
       <c r="E17" s="19"/>
-      <c r="F17" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="20">
@@ -8929,9 +8386,7 @@
       <c r="C18" s="7"/>
       <c r="D18" s="17"/>
       <c r="E18" s="19"/>
-      <c r="F18" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="20">
@@ -8942,9 +8397,7 @@
       <c r="C19" s="7"/>
       <c r="D19" s="17"/>
       <c r="E19" s="19"/>
-      <c r="F19" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="20">
@@ -8955,9 +8408,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="17"/>
       <c r="E20" s="19"/>
-      <c r="F20" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="20">
@@ -8968,9 +8419,7 @@
       <c r="C21" s="7"/>
       <c r="D21" s="17"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="20">
@@ -8981,9 +8430,7 @@
       <c r="C22" s="7"/>
       <c r="D22" s="17"/>
       <c r="E22" s="19"/>
-      <c r="F22" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="20">
@@ -8994,9 +8441,7 @@
       <c r="C23" s="7"/>
       <c r="D23" s="17"/>
       <c r="E23" s="19"/>
-      <c r="F23" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="20">
@@ -9007,9 +8452,7 @@
       <c r="C24" s="7"/>
       <c r="D24" s="17"/>
       <c r="E24" s="19"/>
-      <c r="F24" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="20">
@@ -9020,9 +8463,7 @@
       <c r="C25" s="7"/>
       <c r="D25" s="17"/>
       <c r="E25" s="19"/>
-      <c r="F25" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="20">
@@ -9033,9 +8474,7 @@
       <c r="C26" s="7"/>
       <c r="D26" s="17"/>
       <c r="E26" s="19"/>
-      <c r="F26" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="20">
@@ -9046,9 +8485,7 @@
       <c r="C27" s="7"/>
       <c r="D27" s="17"/>
       <c r="E27" s="19"/>
-      <c r="F27" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="20">
@@ -9059,9 +8496,7 @@
       <c r="C28" s="7"/>
       <c r="D28" s="17"/>
       <c r="E28" s="19"/>
-      <c r="F28" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="20">
@@ -9072,9 +8507,7 @@
       <c r="C29" s="7"/>
       <c r="D29" s="17"/>
       <c r="E29" s="19"/>
-      <c r="F29" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="20">
@@ -9085,9 +8518,7 @@
       <c r="C30" s="7"/>
       <c r="D30" s="17"/>
       <c r="E30" s="19"/>
-      <c r="F30" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="20">
@@ -9098,9 +8529,7 @@
       <c r="C31" s="7"/>
       <c r="D31" s="17"/>
       <c r="E31" s="19"/>
-      <c r="F31" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="20">
@@ -9111,9 +8540,7 @@
       <c r="C32" s="7"/>
       <c r="D32" s="17"/>
       <c r="E32" s="19"/>
-      <c r="F32" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="20">
@@ -9124,9 +8551,7 @@
       <c r="C33" s="7"/>
       <c r="D33" s="17"/>
       <c r="E33" s="19"/>
-      <c r="F33" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="20">
@@ -9137,9 +8562,7 @@
       <c r="C34" s="7"/>
       <c r="D34" s="17"/>
       <c r="E34" s="19"/>
-      <c r="F34" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="20">
@@ -9150,9 +8573,7 @@
       <c r="C35" s="7"/>
       <c r="D35" s="17"/>
       <c r="E35" s="19"/>
-      <c r="F35" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="20">
@@ -9163,9 +8584,7 @@
       <c r="C36" s="7"/>
       <c r="D36" s="17"/>
       <c r="E36" s="19"/>
-      <c r="F36" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="20">
@@ -9176,9 +8595,7 @@
       <c r="C37" s="7"/>
       <c r="D37" s="17"/>
       <c r="E37" s="19"/>
-      <c r="F37" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="20">
@@ -9189,9 +8606,7 @@
       <c r="C38" s="7"/>
       <c r="D38" s="17"/>
       <c r="E38" s="19"/>
-      <c r="F38" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="20">
@@ -9202,9 +8617,7 @@
       <c r="C39" s="7"/>
       <c r="D39" s="17"/>
       <c r="E39" s="19"/>
-      <c r="F39" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="20">
@@ -9215,9 +8628,7 @@
       <c r="C40" s="7"/>
       <c r="D40" s="17"/>
       <c r="E40" s="19"/>
-      <c r="F40" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="20">
@@ -9228,9 +8639,7 @@
       <c r="C41" s="7"/>
       <c r="D41" s="17"/>
       <c r="E41" s="19"/>
-      <c r="F41" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F41" s="18"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="20">
@@ -9241,9 +8650,7 @@
       <c r="C42" s="7"/>
       <c r="D42" s="17"/>
       <c r="E42" s="19"/>
-      <c r="F42" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F42" s="18"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="20">
@@ -9254,9 +8661,7 @@
       <c r="C43" s="7"/>
       <c r="D43" s="17"/>
       <c r="E43" s="19"/>
-      <c r="F43" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F43" s="18"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="20">
@@ -9267,9 +8672,7 @@
       <c r="C44" s="7"/>
       <c r="D44" s="17"/>
       <c r="E44" s="19"/>
-      <c r="F44" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F44" s="18"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="20">
@@ -9280,9 +8683,7 @@
       <c r="C45" s="7"/>
       <c r="D45" s="17"/>
       <c r="E45" s="19"/>
-      <c r="F45" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F45" s="18"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="20">
@@ -9293,9 +8694,7 @@
       <c r="C46" s="7"/>
       <c r="D46" s="17"/>
       <c r="E46" s="19"/>
-      <c r="F46" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F46" s="18"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="20">
@@ -9306,9 +8705,7 @@
       <c r="C47" s="7"/>
       <c r="D47" s="17"/>
       <c r="E47" s="19"/>
-      <c r="F47" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F47" s="18"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="20">
@@ -9319,9 +8716,7 @@
       <c r="C48" s="7"/>
       <c r="D48" s="17"/>
       <c r="E48" s="19"/>
-      <c r="F48" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F48" s="18"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="20">
@@ -9332,9 +8727,7 @@
       <c r="C49" s="7"/>
       <c r="D49" s="17"/>
       <c r="E49" s="19"/>
-      <c r="F49" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F49" s="18"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="20">
@@ -9345,9 +8738,7 @@
       <c r="C50" s="7"/>
       <c r="D50" s="17"/>
       <c r="E50" s="19"/>
-      <c r="F50" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F50" s="18"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="20">
@@ -9358,9 +8749,7 @@
       <c r="C51" s="7"/>
       <c r="D51" s="17"/>
       <c r="E51" s="19"/>
-      <c r="F51" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F51" s="18"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="20">
@@ -9371,9 +8760,7 @@
       <c r="C52" s="7"/>
       <c r="D52" s="17"/>
       <c r="E52" s="19"/>
-      <c r="F52" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F52" s="18"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="20">
@@ -9384,9 +8771,7 @@
       <c r="C53" s="7"/>
       <c r="D53" s="17"/>
       <c r="E53" s="19"/>
-      <c r="F53" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F53" s="18"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="20">
@@ -9397,9 +8782,7 @@
       <c r="C54" s="7"/>
       <c r="D54" s="17"/>
       <c r="E54" s="19"/>
-      <c r="F54" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F54" s="18"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="20">
@@ -9410,9 +8793,7 @@
       <c r="C55" s="7"/>
       <c r="D55" s="17"/>
       <c r="E55" s="19"/>
-      <c r="F55" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F55" s="18"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="20">
@@ -9423,9 +8804,7 @@
       <c r="C56" s="7"/>
       <c r="D56" s="17"/>
       <c r="E56" s="19"/>
-      <c r="F56" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F56" s="18"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="20">
@@ -9436,9 +8815,7 @@
       <c r="C57" s="7"/>
       <c r="D57" s="17"/>
       <c r="E57" s="19"/>
-      <c r="F57" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F57" s="18"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="20">
@@ -9449,9 +8826,7 @@
       <c r="C58" s="7"/>
       <c r="D58" s="17"/>
       <c r="E58" s="19"/>
-      <c r="F58" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F58" s="18"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="20">
@@ -9462,9 +8837,7 @@
       <c r="C59" s="7"/>
       <c r="D59" s="17"/>
       <c r="E59" s="19"/>
-      <c r="F59" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F59" s="18"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="20">
@@ -9475,9 +8848,7 @@
       <c r="C60" s="7"/>
       <c r="D60" s="17"/>
       <c r="E60" s="19"/>
-      <c r="F60" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F60" s="18"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="20">
@@ -9488,9 +8859,7 @@
       <c r="C61" s="7"/>
       <c r="D61" s="17"/>
       <c r="E61" s="19"/>
-      <c r="F61" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F61" s="18"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="20">
@@ -9501,9 +8870,7 @@
       <c r="C62" s="7"/>
       <c r="D62" s="17"/>
       <c r="E62" s="19"/>
-      <c r="F62" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F62" s="18"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="20">
@@ -9514,9 +8881,7 @@
       <c r="C63" s="7"/>
       <c r="D63" s="17"/>
       <c r="E63" s="19"/>
-      <c r="F63" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F63" s="18"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="20">
@@ -9527,9 +8892,7 @@
       <c r="C64" s="7"/>
       <c r="D64" s="17"/>
       <c r="E64" s="19"/>
-      <c r="F64" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F64" s="18"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="20">
@@ -9540,9 +8903,7 @@
       <c r="C65" s="7"/>
       <c r="D65" s="17"/>
       <c r="E65" s="19"/>
-      <c r="F65" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F65" s="18"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="20">
@@ -9553,9 +8914,7 @@
       <c r="C66" s="7"/>
       <c r="D66" s="17"/>
       <c r="E66" s="19"/>
-      <c r="F66" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F66" s="18"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="20">
@@ -9566,9 +8925,7 @@
       <c r="C67" s="7"/>
       <c r="D67" s="17"/>
       <c r="E67" s="19"/>
-      <c r="F67" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F67" s="18"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="20">
@@ -9579,9 +8936,7 @@
       <c r="C68" s="7"/>
       <c r="D68" s="17"/>
       <c r="E68" s="19"/>
-      <c r="F68" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F68" s="18"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="20">
@@ -9592,9 +8947,7 @@
       <c r="C69" s="7"/>
       <c r="D69" s="17"/>
       <c r="E69" s="19"/>
-      <c r="F69" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F69" s="18"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="20">
@@ -9605,9 +8958,7 @@
       <c r="C70" s="7"/>
       <c r="D70" s="17"/>
       <c r="E70" s="19"/>
-      <c r="F70" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F70" s="18"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="20">
@@ -9618,9 +8969,7 @@
       <c r="C71" s="7"/>
       <c r="D71" s="17"/>
       <c r="E71" s="19"/>
-      <c r="F71" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F71" s="18"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="20">
@@ -9631,9 +8980,7 @@
       <c r="C72" s="7"/>
       <c r="D72" s="17"/>
       <c r="E72" s="19"/>
-      <c r="F72" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F72" s="18"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="20">
@@ -9644,9 +8991,7 @@
       <c r="C73" s="7"/>
       <c r="D73" s="17"/>
       <c r="E73" s="19"/>
-      <c r="F73" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F73" s="18"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="20">
@@ -9657,9 +9002,7 @@
       <c r="C74" s="7"/>
       <c r="D74" s="17"/>
       <c r="E74" s="19"/>
-      <c r="F74" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F74" s="18"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="20">
@@ -9670,9 +9013,7 @@
       <c r="C75" s="7"/>
       <c r="D75" s="17"/>
       <c r="E75" s="19"/>
-      <c r="F75" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F75" s="18"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="20">
@@ -9683,9 +9024,7 @@
       <c r="C76" s="7"/>
       <c r="D76" s="17"/>
       <c r="E76" s="19"/>
-      <c r="F76" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F76" s="18"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="20">
@@ -9696,9 +9035,7 @@
       <c r="C77" s="7"/>
       <c r="D77" s="17"/>
       <c r="E77" s="19"/>
-      <c r="F77" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F77" s="18"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="20">
@@ -9709,9 +9046,7 @@
       <c r="C78" s="7"/>
       <c r="D78" s="17"/>
       <c r="E78" s="19"/>
-      <c r="F78" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F78" s="18"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="20">
@@ -9722,9 +9057,7 @@
       <c r="C79" s="7"/>
       <c r="D79" s="17"/>
       <c r="E79" s="19"/>
-      <c r="F79" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F79" s="18"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="20">
@@ -9735,9 +9068,7 @@
       <c r="C80" s="7"/>
       <c r="D80" s="17"/>
       <c r="E80" s="19"/>
-      <c r="F80" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F80" s="18"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="20">
@@ -9748,9 +9079,7 @@
       <c r="C81" s="7"/>
       <c r="D81" s="17"/>
       <c r="E81" s="19"/>
-      <c r="F81" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F81" s="18"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="20">
@@ -9761,9 +9090,7 @@
       <c r="C82" s="7"/>
       <c r="D82" s="17"/>
       <c r="E82" s="19"/>
-      <c r="F82" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F82" s="18"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="20">
@@ -9774,9 +9101,7 @@
       <c r="C83" s="7"/>
       <c r="D83" s="17"/>
       <c r="E83" s="19"/>
-      <c r="F83" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F83" s="18"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="20">
@@ -9787,9 +9112,7 @@
       <c r="C84" s="7"/>
       <c r="D84" s="17"/>
       <c r="E84" s="19"/>
-      <c r="F84" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F84" s="18"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="20">
@@ -9800,9 +9123,7 @@
       <c r="C85" s="7"/>
       <c r="D85" s="17"/>
       <c r="E85" s="19"/>
-      <c r="F85" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F85" s="18"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="20">
@@ -9813,9 +9134,7 @@
       <c r="C86" s="7"/>
       <c r="D86" s="17"/>
       <c r="E86" s="19"/>
-      <c r="F86" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F86" s="18"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="20">
@@ -9826,9 +9145,7 @@
       <c r="C87" s="7"/>
       <c r="D87" s="17"/>
       <c r="E87" s="19"/>
-      <c r="F87" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F87" s="18"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="20">
@@ -9839,9 +9156,7 @@
       <c r="C88" s="7"/>
       <c r="D88" s="17"/>
       <c r="E88" s="19"/>
-      <c r="F88" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F88" s="18"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="20">
@@ -9852,9 +9167,7 @@
       <c r="C89" s="7"/>
       <c r="D89" s="17"/>
       <c r="E89" s="19"/>
-      <c r="F89" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F89" s="18"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="20">
@@ -9865,9 +9178,7 @@
       <c r="C90" s="7"/>
       <c r="D90" s="17"/>
       <c r="E90" s="19"/>
-      <c r="F90" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F90" s="18"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="20">
@@ -9878,9 +9189,7 @@
       <c r="C91" s="7"/>
       <c r="D91" s="17"/>
       <c r="E91" s="19"/>
-      <c r="F91" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F91" s="18"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="20">
@@ -9891,9 +9200,7 @@
       <c r="C92" s="7"/>
       <c r="D92" s="17"/>
       <c r="E92" s="19"/>
-      <c r="F92" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F92" s="18"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="20">
@@ -9904,9 +9211,7 @@
       <c r="C93" s="7"/>
       <c r="D93" s="17"/>
       <c r="E93" s="19"/>
-      <c r="F93" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F93" s="18"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="20">
@@ -9917,9 +9222,7 @@
       <c r="C94" s="7"/>
       <c r="D94" s="17"/>
       <c r="E94" s="19"/>
-      <c r="F94" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F94" s="18"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="20">
@@ -9930,9 +9233,7 @@
       <c r="C95" s="7"/>
       <c r="D95" s="17"/>
       <c r="E95" s="19"/>
-      <c r="F95" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F95" s="18"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="20">
@@ -9943,9 +9244,7 @@
       <c r="C96" s="7"/>
       <c r="D96" s="17"/>
       <c r="E96" s="19"/>
-      <c r="F96" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F96" s="18"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="20">
@@ -9956,9 +9255,7 @@
       <c r="C97" s="7"/>
       <c r="D97" s="17"/>
       <c r="E97" s="19"/>
-      <c r="F97" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F97" s="18"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="20">
@@ -9969,9 +9266,7 @@
       <c r="C98" s="7"/>
       <c r="D98" s="17"/>
       <c r="E98" s="19"/>
-      <c r="F98" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F98" s="18"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="20">
@@ -9982,9 +9277,7 @@
       <c r="C99" s="7"/>
       <c r="D99" s="17"/>
       <c r="E99" s="19"/>
-      <c r="F99" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F99" s="18"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="20">
@@ -9995,9 +9288,7 @@
       <c r="C100" s="7"/>
       <c r="D100" s="17"/>
       <c r="E100" s="19"/>
-      <c r="F100" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F100" s="18"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="20">
@@ -10008,9 +9299,7 @@
       <c r="C101" s="7"/>
       <c r="D101" s="17"/>
       <c r="E101" s="19"/>
-      <c r="F101" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F101" s="18"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="20">
@@ -10021,9 +9310,7 @@
       <c r="C102" s="7"/>
       <c r="D102" s="17"/>
       <c r="E102" s="19"/>
-      <c r="F102" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F102" s="18"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="20">
@@ -10034,9 +9321,7 @@
       <c r="C103" s="7"/>
       <c r="D103" s="17"/>
       <c r="E103" s="19"/>
-      <c r="F103" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F103" s="18"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="20">
@@ -10047,9 +9332,7 @@
       <c r="C104" s="7"/>
       <c r="D104" s="17"/>
       <c r="E104" s="19"/>
-      <c r="F104" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F104" s="18"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="20">
@@ -10060,9 +9343,7 @@
       <c r="C105" s="7"/>
       <c r="D105" s="17"/>
       <c r="E105" s="19"/>
-      <c r="F105" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F105" s="18"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="20">
@@ -10073,9 +9354,7 @@
       <c r="C106" s="7"/>
       <c r="D106" s="17"/>
       <c r="E106" s="19"/>
-      <c r="F106" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F106" s="18"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="20">
@@ -10086,9 +9365,7 @@
       <c r="C107" s="7"/>
       <c r="D107" s="17"/>
       <c r="E107" s="19"/>
-      <c r="F107" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F107" s="18"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="20">
@@ -10099,9 +9376,7 @@
       <c r="C108" s="7"/>
       <c r="D108" s="17"/>
       <c r="E108" s="19"/>
-      <c r="F108" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F108" s="18"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="20">
@@ -10112,9 +9387,7 @@
       <c r="C109" s="7"/>
       <c r="D109" s="17"/>
       <c r="E109" s="19"/>
-      <c r="F109" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F109" s="18"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="20">
@@ -10125,9 +9398,7 @@
       <c r="C110" s="7"/>
       <c r="D110" s="17"/>
       <c r="E110" s="19"/>
-      <c r="F110" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F110" s="18"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="20">
@@ -10138,9 +9409,7 @@
       <c r="C111" s="7"/>
       <c r="D111" s="17"/>
       <c r="E111" s="19"/>
-      <c r="F111" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F111" s="18"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="20">
@@ -10151,9 +9420,7 @@
       <c r="C112" s="7"/>
       <c r="D112" s="17"/>
       <c r="E112" s="19"/>
-      <c r="F112" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F112" s="18"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="20">
@@ -10164,9 +9431,7 @@
       <c r="C113" s="7"/>
       <c r="D113" s="17"/>
       <c r="E113" s="19"/>
-      <c r="F113" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F113" s="18"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="20">
@@ -10177,9 +9442,7 @@
       <c r="C114" s="7"/>
       <c r="D114" s="17"/>
       <c r="E114" s="19"/>
-      <c r="F114" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F114" s="18"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="20">
@@ -10190,9 +9453,7 @@
       <c r="C115" s="7"/>
       <c r="D115" s="17"/>
       <c r="E115" s="19"/>
-      <c r="F115" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F115" s="18"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="20">
@@ -10203,9 +9464,7 @@
       <c r="C116" s="7"/>
       <c r="D116" s="17"/>
       <c r="E116" s="19"/>
-      <c r="F116" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F116" s="18"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="20">
@@ -10216,9 +9475,7 @@
       <c r="C117" s="7"/>
       <c r="D117" s="17"/>
       <c r="E117" s="19"/>
-      <c r="F117" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F117" s="18"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="20">
@@ -10229,9 +9486,7 @@
       <c r="C118" s="7"/>
       <c r="D118" s="17"/>
       <c r="E118" s="19"/>
-      <c r="F118" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F118" s="18"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="20">
@@ -10242,9 +9497,7 @@
       <c r="C119" s="7"/>
       <c r="D119" s="17"/>
       <c r="E119" s="19"/>
-      <c r="F119" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F119" s="18"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="20">
@@ -10255,9 +9508,7 @@
       <c r="C120" s="7"/>
       <c r="D120" s="17"/>
       <c r="E120" s="19"/>
-      <c r="F120" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F120" s="18"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="20">
@@ -10268,9 +9519,7 @@
       <c r="C121" s="7"/>
       <c r="D121" s="17"/>
       <c r="E121" s="19"/>
-      <c r="F121" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F121" s="18"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="20">
@@ -10281,9 +9530,7 @@
       <c r="C122" s="7"/>
       <c r="D122" s="17"/>
       <c r="E122" s="19"/>
-      <c r="F122" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F122" s="18"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="20">
@@ -10294,9 +9541,7 @@
       <c r="C123" s="7"/>
       <c r="D123" s="17"/>
       <c r="E123" s="19"/>
-      <c r="F123" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F123" s="18"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="20">
@@ -10307,9 +9552,7 @@
       <c r="C124" s="7"/>
       <c r="D124" s="17"/>
       <c r="E124" s="19"/>
-      <c r="F124" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F124" s="18"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="20">
@@ -10320,9 +9563,7 @@
       <c r="C125" s="7"/>
       <c r="D125" s="17"/>
       <c r="E125" s="19"/>
-      <c r="F125" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F125" s="18"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="20">
@@ -10333,9 +9574,7 @@
       <c r="C126" s="7"/>
       <c r="D126" s="17"/>
       <c r="E126" s="19"/>
-      <c r="F126" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F126" s="18"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="20">
@@ -10346,9 +9585,7 @@
       <c r="C127" s="7"/>
       <c r="D127" s="17"/>
       <c r="E127" s="19"/>
-      <c r="F127" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F127" s="18"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="20">
@@ -10359,9 +9596,7 @@
       <c r="C128" s="7"/>
       <c r="D128" s="17"/>
       <c r="E128" s="19"/>
-      <c r="F128" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F128" s="18"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="20">
@@ -10372,9 +9607,7 @@
       <c r="C129" s="7"/>
       <c r="D129" s="17"/>
       <c r="E129" s="19"/>
-      <c r="F129" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F129" s="18"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="20">
@@ -10385,9 +9618,7 @@
       <c r="C130" s="7"/>
       <c r="D130" s="17"/>
       <c r="E130" s="19"/>
-      <c r="F130" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F130" s="18"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="20">
@@ -10398,9 +9629,7 @@
       <c r="C131" s="7"/>
       <c r="D131" s="17"/>
       <c r="E131" s="19"/>
-      <c r="F131" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F131" s="18"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="20">
@@ -10411,9 +9640,7 @@
       <c r="C132" s="7"/>
       <c r="D132" s="17"/>
       <c r="E132" s="19"/>
-      <c r="F132" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F132" s="18"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="20">
@@ -10424,9 +9651,7 @@
       <c r="C133" s="7"/>
       <c r="D133" s="17"/>
       <c r="E133" s="19"/>
-      <c r="F133" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F133" s="18"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="20">
@@ -10437,9 +9662,7 @@
       <c r="C134" s="7"/>
       <c r="D134" s="17"/>
       <c r="E134" s="19"/>
-      <c r="F134" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F134" s="18"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="20">
@@ -10450,9 +9673,7 @@
       <c r="C135" s="7"/>
       <c r="D135" s="17"/>
       <c r="E135" s="19"/>
-      <c r="F135" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F135" s="18"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="20">
@@ -10463,9 +9684,7 @@
       <c r="C136" s="7"/>
       <c r="D136" s="17"/>
       <c r="E136" s="19"/>
-      <c r="F136" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F136" s="18"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="20">
@@ -10476,9 +9695,7 @@
       <c r="C137" s="7"/>
       <c r="D137" s="17"/>
       <c r="E137" s="19"/>
-      <c r="F137" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F137" s="18"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="20">
@@ -10489,9 +9706,7 @@
       <c r="C138" s="7"/>
       <c r="D138" s="17"/>
       <c r="E138" s="19"/>
-      <c r="F138" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F138" s="18"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="20">
@@ -10502,9 +9717,7 @@
       <c r="C139" s="7"/>
       <c r="D139" s="17"/>
       <c r="E139" s="19"/>
-      <c r="F139" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F139" s="18"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="20">
@@ -10515,9 +9728,7 @@
       <c r="C140" s="7"/>
       <c r="D140" s="17"/>
       <c r="E140" s="19"/>
-      <c r="F140" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F140" s="18"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="20">
@@ -10528,9 +9739,7 @@
       <c r="C141" s="7"/>
       <c r="D141" s="17"/>
       <c r="E141" s="19"/>
-      <c r="F141" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F141" s="18"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="20">
@@ -10541,9 +9750,7 @@
       <c r="C142" s="7"/>
       <c r="D142" s="17"/>
       <c r="E142" s="19"/>
-      <c r="F142" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F142" s="18"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="20">
@@ -10554,9 +9761,7 @@
       <c r="C143" s="7"/>
       <c r="D143" s="17"/>
       <c r="E143" s="19"/>
-      <c r="F143" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F143" s="18"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="20">
@@ -10567,9 +9772,7 @@
       <c r="C144" s="7"/>
       <c r="D144" s="17"/>
       <c r="E144" s="19"/>
-      <c r="F144" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F144" s="18"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="20">
@@ -10580,9 +9783,7 @@
       <c r="C145" s="7"/>
       <c r="D145" s="17"/>
       <c r="E145" s="19"/>
-      <c r="F145" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F145" s="18"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="20">
@@ -10593,9 +9794,7 @@
       <c r="C146" s="7"/>
       <c r="D146" s="17"/>
       <c r="E146" s="19"/>
-      <c r="F146" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F146" s="18"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="20">
@@ -10606,9 +9805,7 @@
       <c r="C147" s="7"/>
       <c r="D147" s="17"/>
       <c r="E147" s="19"/>
-      <c r="F147" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F147" s="18"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="20">
@@ -10619,9 +9816,7 @@
       <c r="C148" s="7"/>
       <c r="D148" s="17"/>
       <c r="E148" s="19"/>
-      <c r="F148" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F148" s="18"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="20">
@@ -10632,9 +9827,7 @@
       <c r="C149" s="7"/>
       <c r="D149" s="17"/>
       <c r="E149" s="19"/>
-      <c r="F149" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F149" s="18"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="20">
@@ -10645,9 +9838,7 @@
       <c r="C150" s="7"/>
       <c r="D150" s="17"/>
       <c r="E150" s="19"/>
-      <c r="F150" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F150" s="18"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="20">
@@ -10658,9 +9849,7 @@
       <c r="C151" s="7"/>
       <c r="D151" s="17"/>
       <c r="E151" s="19"/>
-      <c r="F151" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F151" s="18"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="20">
@@ -10671,9 +9860,7 @@
       <c r="C152" s="7"/>
       <c r="D152" s="17"/>
       <c r="E152" s="19"/>
-      <c r="F152" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F152" s="18"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="20">
@@ -10684,9 +9871,7 @@
       <c r="C153" s="7"/>
       <c r="D153" s="17"/>
       <c r="E153" s="19"/>
-      <c r="F153" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F153" s="18"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="20">
@@ -10697,9 +9882,7 @@
       <c r="C154" s="7"/>
       <c r="D154" s="17"/>
       <c r="E154" s="19"/>
-      <c r="F154" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F154" s="18"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="20">
@@ -10710,9 +9893,7 @@
       <c r="C155" s="7"/>
       <c r="D155" s="17"/>
       <c r="E155" s="19"/>
-      <c r="F155" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F155" s="18"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="20">
@@ -10723,9 +9904,7 @@
       <c r="C156" s="7"/>
       <c r="D156" s="17"/>
       <c r="E156" s="19"/>
-      <c r="F156" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F156" s="18"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="20">
@@ -10736,9 +9915,7 @@
       <c r="C157" s="7"/>
       <c r="D157" s="17"/>
       <c r="E157" s="19"/>
-      <c r="F157" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F157" s="18"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="20">
@@ -10749,9 +9926,7 @@
       <c r="C158" s="7"/>
       <c r="D158" s="17"/>
       <c r="E158" s="19"/>
-      <c r="F158" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F158" s="18"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="20">
@@ -10762,9 +9937,7 @@
       <c r="C159" s="7"/>
       <c r="D159" s="17"/>
       <c r="E159" s="19"/>
-      <c r="F159" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F159" s="18"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="20">
@@ -10775,9 +9948,7 @@
       <c r="C160" s="7"/>
       <c r="D160" s="17"/>
       <c r="E160" s="19"/>
-      <c r="F160" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F160" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -10825,8 +9996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2632F0E8-24F5-4387-B349-067B686A35FA}">
   <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10850,7 +10021,7 @@
     </row>
     <row r="2" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -10871,10 +10042,10 @@
     </row>
     <row r="5" spans="1:6" ht="82" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="21" t="s">
@@ -10891,10 +10062,10 @@
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>22</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="21" t="s">
@@ -10911,10 +10082,10 @@
     </row>
     <row r="7" spans="1:6" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="29" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>24</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="21" t="s">
@@ -10931,10 +10102,10 @@
     </row>
     <row r="8" spans="1:6" ht="39" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C8" s="36"/>
       <c r="D8" s="21" t="s">
@@ -10949,10 +10120,10 @@
     </row>
     <row r="9" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="21"/>
@@ -10986,17 +10157,17 @@
         <v>1</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="18" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -11005,17 +10176,17 @@
         <v>2</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="18" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="39" x14ac:dyDescent="0.35">
@@ -11024,17 +10195,17 @@
         <v>3</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="18" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="26" x14ac:dyDescent="0.35">
@@ -11043,17 +10214,17 @@
         <v>4</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="18" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="65" x14ac:dyDescent="0.35">
@@ -11062,17 +10233,17 @@
         <v>5</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="18" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -11084,9 +10255,7 @@
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
-      <c r="F17" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="20">
@@ -11097,9 +10266,7 @@
       <c r="C18" s="7"/>
       <c r="D18" s="17"/>
       <c r="E18" s="19"/>
-      <c r="F18" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="20">
@@ -11110,9 +10277,7 @@
       <c r="C19" s="7"/>
       <c r="D19" s="17"/>
       <c r="E19" s="19"/>
-      <c r="F19" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="20">
@@ -11123,9 +10288,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="17"/>
       <c r="E20" s="19"/>
-      <c r="F20" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="20">
@@ -11136,9 +10299,7 @@
       <c r="C21" s="7"/>
       <c r="D21" s="17"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="20">
@@ -11149,9 +10310,7 @@
       <c r="C22" s="7"/>
       <c r="D22" s="17"/>
       <c r="E22" s="19"/>
-      <c r="F22" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="20">
@@ -11162,9 +10321,7 @@
       <c r="C23" s="7"/>
       <c r="D23" s="17"/>
       <c r="E23" s="19"/>
-      <c r="F23" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="20">
@@ -11175,9 +10332,7 @@
       <c r="C24" s="7"/>
       <c r="D24" s="17"/>
       <c r="E24" s="19"/>
-      <c r="F24" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="20">
@@ -11188,9 +10343,7 @@
       <c r="C25" s="7"/>
       <c r="D25" s="17"/>
       <c r="E25" s="19"/>
-      <c r="F25" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="20">
@@ -11201,9 +10354,7 @@
       <c r="C26" s="7"/>
       <c r="D26" s="17"/>
       <c r="E26" s="19"/>
-      <c r="F26" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="20">
@@ -11214,9 +10365,7 @@
       <c r="C27" s="7"/>
       <c r="D27" s="17"/>
       <c r="E27" s="19"/>
-      <c r="F27" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="20">
@@ -11227,9 +10376,7 @@
       <c r="C28" s="7"/>
       <c r="D28" s="17"/>
       <c r="E28" s="19"/>
-      <c r="F28" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="20">
@@ -11240,9 +10387,7 @@
       <c r="C29" s="7"/>
       <c r="D29" s="17"/>
       <c r="E29" s="19"/>
-      <c r="F29" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="20">
@@ -11253,9 +10398,7 @@
       <c r="C30" s="7"/>
       <c r="D30" s="17"/>
       <c r="E30" s="19"/>
-      <c r="F30" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="20">
@@ -11266,9 +10409,7 @@
       <c r="C31" s="7"/>
       <c r="D31" s="17"/>
       <c r="E31" s="19"/>
-      <c r="F31" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="20">
@@ -11279,9 +10420,7 @@
       <c r="C32" s="7"/>
       <c r="D32" s="17"/>
       <c r="E32" s="19"/>
-      <c r="F32" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="20">
@@ -11292,9 +10431,7 @@
       <c r="C33" s="7"/>
       <c r="D33" s="17"/>
       <c r="E33" s="19"/>
-      <c r="F33" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="20">
@@ -11305,9 +10442,7 @@
       <c r="C34" s="7"/>
       <c r="D34" s="17"/>
       <c r="E34" s="19"/>
-      <c r="F34" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="20">
@@ -11318,9 +10453,7 @@
       <c r="C35" s="7"/>
       <c r="D35" s="17"/>
       <c r="E35" s="19"/>
-      <c r="F35" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="20">
@@ -11331,9 +10464,7 @@
       <c r="C36" s="7"/>
       <c r="D36" s="17"/>
       <c r="E36" s="19"/>
-      <c r="F36" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="20">
@@ -11344,9 +10475,7 @@
       <c r="C37" s="7"/>
       <c r="D37" s="17"/>
       <c r="E37" s="19"/>
-      <c r="F37" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="20">
@@ -11357,9 +10486,7 @@
       <c r="C38" s="7"/>
       <c r="D38" s="17"/>
       <c r="E38" s="19"/>
-      <c r="F38" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="20">
@@ -11370,9 +10497,7 @@
       <c r="C39" s="7"/>
       <c r="D39" s="17"/>
       <c r="E39" s="19"/>
-      <c r="F39" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="20">
@@ -11383,9 +10508,7 @@
       <c r="C40" s="7"/>
       <c r="D40" s="17"/>
       <c r="E40" s="19"/>
-      <c r="F40" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="20">
@@ -11396,9 +10519,7 @@
       <c r="C41" s="7"/>
       <c r="D41" s="17"/>
       <c r="E41" s="19"/>
-      <c r="F41" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F41" s="18"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="20">
@@ -11409,9 +10530,7 @@
       <c r="C42" s="7"/>
       <c r="D42" s="17"/>
       <c r="E42" s="19"/>
-      <c r="F42" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F42" s="18"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="20">
@@ -11422,9 +10541,7 @@
       <c r="C43" s="7"/>
       <c r="D43" s="17"/>
       <c r="E43" s="19"/>
-      <c r="F43" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F43" s="18"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="20">
@@ -11435,9 +10552,7 @@
       <c r="C44" s="7"/>
       <c r="D44" s="17"/>
       <c r="E44" s="19"/>
-      <c r="F44" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F44" s="18"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="20">
@@ -11448,9 +10563,7 @@
       <c r="C45" s="7"/>
       <c r="D45" s="17"/>
       <c r="E45" s="19"/>
-      <c r="F45" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F45" s="18"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="20">
@@ -11461,9 +10574,7 @@
       <c r="C46" s="7"/>
       <c r="D46" s="17"/>
       <c r="E46" s="19"/>
-      <c r="F46" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F46" s="18"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="20">
@@ -11474,9 +10585,7 @@
       <c r="C47" s="7"/>
       <c r="D47" s="17"/>
       <c r="E47" s="19"/>
-      <c r="F47" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F47" s="18"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="20">
@@ -11487,9 +10596,7 @@
       <c r="C48" s="7"/>
       <c r="D48" s="17"/>
       <c r="E48" s="19"/>
-      <c r="F48" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F48" s="18"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="20">
@@ -11500,9 +10607,7 @@
       <c r="C49" s="7"/>
       <c r="D49" s="17"/>
       <c r="E49" s="19"/>
-      <c r="F49" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F49" s="18"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="20">
@@ -11513,9 +10618,7 @@
       <c r="C50" s="7"/>
       <c r="D50" s="17"/>
       <c r="E50" s="19"/>
-      <c r="F50" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F50" s="18"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="20">
@@ -11526,9 +10629,7 @@
       <c r="C51" s="7"/>
       <c r="D51" s="17"/>
       <c r="E51" s="19"/>
-      <c r="F51" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F51" s="18"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="20">
@@ -11539,9 +10640,7 @@
       <c r="C52" s="7"/>
       <c r="D52" s="17"/>
       <c r="E52" s="19"/>
-      <c r="F52" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F52" s="18"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="20">
@@ -11552,9 +10651,7 @@
       <c r="C53" s="7"/>
       <c r="D53" s="17"/>
       <c r="E53" s="19"/>
-      <c r="F53" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F53" s="18"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="20">
@@ -11565,9 +10662,7 @@
       <c r="C54" s="7"/>
       <c r="D54" s="17"/>
       <c r="E54" s="19"/>
-      <c r="F54" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F54" s="18"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="20">
@@ -11578,9 +10673,7 @@
       <c r="C55" s="7"/>
       <c r="D55" s="17"/>
       <c r="E55" s="19"/>
-      <c r="F55" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F55" s="18"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="20">
@@ -11591,9 +10684,7 @@
       <c r="C56" s="7"/>
       <c r="D56" s="17"/>
       <c r="E56" s="19"/>
-      <c r="F56" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F56" s="18"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="20">
@@ -11604,9 +10695,7 @@
       <c r="C57" s="7"/>
       <c r="D57" s="17"/>
       <c r="E57" s="19"/>
-      <c r="F57" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F57" s="18"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="20">
@@ -11617,9 +10706,7 @@
       <c r="C58" s="7"/>
       <c r="D58" s="17"/>
       <c r="E58" s="19"/>
-      <c r="F58" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F58" s="18"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="20">
@@ -11630,9 +10717,7 @@
       <c r="C59" s="7"/>
       <c r="D59" s="17"/>
       <c r="E59" s="19"/>
-      <c r="F59" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F59" s="18"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="20">
@@ -11643,9 +10728,7 @@
       <c r="C60" s="7"/>
       <c r="D60" s="17"/>
       <c r="E60" s="19"/>
-      <c r="F60" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F60" s="18"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="20">
@@ -11656,9 +10739,7 @@
       <c r="C61" s="7"/>
       <c r="D61" s="17"/>
       <c r="E61" s="19"/>
-      <c r="F61" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F61" s="18"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="20">
@@ -11669,9 +10750,7 @@
       <c r="C62" s="7"/>
       <c r="D62" s="17"/>
       <c r="E62" s="19"/>
-      <c r="F62" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F62" s="18"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="20">
@@ -11682,9 +10761,7 @@
       <c r="C63" s="7"/>
       <c r="D63" s="17"/>
       <c r="E63" s="19"/>
-      <c r="F63" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F63" s="18"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="20">
@@ -11695,9 +10772,7 @@
       <c r="C64" s="7"/>
       <c r="D64" s="17"/>
       <c r="E64" s="19"/>
-      <c r="F64" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F64" s="18"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="20">
@@ -11708,9 +10783,7 @@
       <c r="C65" s="7"/>
       <c r="D65" s="17"/>
       <c r="E65" s="19"/>
-      <c r="F65" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F65" s="18"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="20">
@@ -11721,9 +10794,7 @@
       <c r="C66" s="7"/>
       <c r="D66" s="17"/>
       <c r="E66" s="19"/>
-      <c r="F66" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F66" s="18"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="20">
@@ -11734,9 +10805,7 @@
       <c r="C67" s="7"/>
       <c r="D67" s="17"/>
       <c r="E67" s="19"/>
-      <c r="F67" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F67" s="18"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="20">
@@ -11747,9 +10816,7 @@
       <c r="C68" s="7"/>
       <c r="D68" s="17"/>
       <c r="E68" s="19"/>
-      <c r="F68" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F68" s="18"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="20">
@@ -11760,9 +10827,7 @@
       <c r="C69" s="7"/>
       <c r="D69" s="17"/>
       <c r="E69" s="19"/>
-      <c r="F69" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F69" s="18"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="20">
@@ -11773,9 +10838,7 @@
       <c r="C70" s="7"/>
       <c r="D70" s="17"/>
       <c r="E70" s="19"/>
-      <c r="F70" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F70" s="18"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="20">
@@ -11786,9 +10849,7 @@
       <c r="C71" s="7"/>
       <c r="D71" s="17"/>
       <c r="E71" s="19"/>
-      <c r="F71" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F71" s="18"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="20">
@@ -11799,9 +10860,7 @@
       <c r="C72" s="7"/>
       <c r="D72" s="17"/>
       <c r="E72" s="19"/>
-      <c r="F72" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F72" s="18"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="20">
@@ -11812,9 +10871,7 @@
       <c r="C73" s="7"/>
       <c r="D73" s="17"/>
       <c r="E73" s="19"/>
-      <c r="F73" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F73" s="18"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="20">
@@ -11825,9 +10882,7 @@
       <c r="C74" s="7"/>
       <c r="D74" s="17"/>
       <c r="E74" s="19"/>
-      <c r="F74" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F74" s="18"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="20">
@@ -11838,9 +10893,7 @@
       <c r="C75" s="7"/>
       <c r="D75" s="17"/>
       <c r="E75" s="19"/>
-      <c r="F75" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F75" s="18"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="20">
@@ -11851,9 +10904,7 @@
       <c r="C76" s="7"/>
       <c r="D76" s="17"/>
       <c r="E76" s="19"/>
-      <c r="F76" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F76" s="18"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="20">
@@ -11864,9 +10915,7 @@
       <c r="C77" s="7"/>
       <c r="D77" s="17"/>
       <c r="E77" s="19"/>
-      <c r="F77" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F77" s="18"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="20">
@@ -11877,9 +10926,7 @@
       <c r="C78" s="7"/>
       <c r="D78" s="17"/>
       <c r="E78" s="19"/>
-      <c r="F78" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F78" s="18"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="20">
@@ -11890,9 +10937,7 @@
       <c r="C79" s="7"/>
       <c r="D79" s="17"/>
       <c r="E79" s="19"/>
-      <c r="F79" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F79" s="18"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="20">
@@ -11903,9 +10948,7 @@
       <c r="C80" s="7"/>
       <c r="D80" s="17"/>
       <c r="E80" s="19"/>
-      <c r="F80" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F80" s="18"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="20">
@@ -11916,9 +10959,7 @@
       <c r="C81" s="7"/>
       <c r="D81" s="17"/>
       <c r="E81" s="19"/>
-      <c r="F81" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F81" s="18"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="20">
@@ -11929,9 +10970,7 @@
       <c r="C82" s="7"/>
       <c r="D82" s="17"/>
       <c r="E82" s="19"/>
-      <c r="F82" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F82" s="18"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="20">
@@ -11942,9 +10981,7 @@
       <c r="C83" s="7"/>
       <c r="D83" s="17"/>
       <c r="E83" s="19"/>
-      <c r="F83" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F83" s="18"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="20">
@@ -11955,9 +10992,7 @@
       <c r="C84" s="7"/>
       <c r="D84" s="17"/>
       <c r="E84" s="19"/>
-      <c r="F84" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F84" s="18"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="20">
@@ -11968,9 +11003,7 @@
       <c r="C85" s="7"/>
       <c r="D85" s="17"/>
       <c r="E85" s="19"/>
-      <c r="F85" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F85" s="18"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="20">
@@ -11981,9 +11014,7 @@
       <c r="C86" s="7"/>
       <c r="D86" s="17"/>
       <c r="E86" s="19"/>
-      <c r="F86" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F86" s="18"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="20">
@@ -11994,9 +11025,7 @@
       <c r="C87" s="7"/>
       <c r="D87" s="17"/>
       <c r="E87" s="19"/>
-      <c r="F87" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F87" s="18"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="20">
@@ -12007,9 +11036,7 @@
       <c r="C88" s="7"/>
       <c r="D88" s="17"/>
       <c r="E88" s="19"/>
-      <c r="F88" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F88" s="18"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="20">
@@ -12020,9 +11047,7 @@
       <c r="C89" s="7"/>
       <c r="D89" s="17"/>
       <c r="E89" s="19"/>
-      <c r="F89" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F89" s="18"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="20">
@@ -12033,9 +11058,7 @@
       <c r="C90" s="7"/>
       <c r="D90" s="17"/>
       <c r="E90" s="19"/>
-      <c r="F90" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F90" s="18"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="20">
@@ -12046,9 +11069,7 @@
       <c r="C91" s="7"/>
       <c r="D91" s="17"/>
       <c r="E91" s="19"/>
-      <c r="F91" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F91" s="18"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="20">
@@ -12059,9 +11080,7 @@
       <c r="C92" s="7"/>
       <c r="D92" s="17"/>
       <c r="E92" s="19"/>
-      <c r="F92" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F92" s="18"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="20">
@@ -12072,9 +11091,7 @@
       <c r="C93" s="7"/>
       <c r="D93" s="17"/>
       <c r="E93" s="19"/>
-      <c r="F93" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F93" s="18"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="20">
@@ -12085,9 +11102,7 @@
       <c r="C94" s="7"/>
       <c r="D94" s="17"/>
       <c r="E94" s="19"/>
-      <c r="F94" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F94" s="18"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="20">
@@ -12098,9 +11113,7 @@
       <c r="C95" s="7"/>
       <c r="D95" s="17"/>
       <c r="E95" s="19"/>
-      <c r="F95" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F95" s="18"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="20">
@@ -12111,9 +11124,7 @@
       <c r="C96" s="7"/>
       <c r="D96" s="17"/>
       <c r="E96" s="19"/>
-      <c r="F96" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F96" s="18"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="20">
@@ -12124,9 +11135,7 @@
       <c r="C97" s="7"/>
       <c r="D97" s="17"/>
       <c r="E97" s="19"/>
-      <c r="F97" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F97" s="18"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="20">
@@ -12137,9 +11146,7 @@
       <c r="C98" s="7"/>
       <c r="D98" s="17"/>
       <c r="E98" s="19"/>
-      <c r="F98" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F98" s="18"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="20">
@@ -12150,9 +11157,7 @@
       <c r="C99" s="7"/>
       <c r="D99" s="17"/>
       <c r="E99" s="19"/>
-      <c r="F99" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F99" s="18"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="20">
@@ -12163,9 +11168,7 @@
       <c r="C100" s="7"/>
       <c r="D100" s="17"/>
       <c r="E100" s="19"/>
-      <c r="F100" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F100" s="18"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="20">
@@ -12176,9 +11179,7 @@
       <c r="C101" s="7"/>
       <c r="D101" s="17"/>
       <c r="E101" s="19"/>
-      <c r="F101" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F101" s="18"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="20">
@@ -12189,9 +11190,7 @@
       <c r="C102" s="7"/>
       <c r="D102" s="17"/>
       <c r="E102" s="19"/>
-      <c r="F102" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F102" s="18"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="20">
@@ -12202,9 +11201,7 @@
       <c r="C103" s="7"/>
       <c r="D103" s="17"/>
       <c r="E103" s="19"/>
-      <c r="F103" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F103" s="18"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="20">
@@ -12215,9 +11212,7 @@
       <c r="C104" s="7"/>
       <c r="D104" s="17"/>
       <c r="E104" s="19"/>
-      <c r="F104" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F104" s="18"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="20">
@@ -12228,9 +11223,7 @@
       <c r="C105" s="7"/>
       <c r="D105" s="17"/>
       <c r="E105" s="19"/>
-      <c r="F105" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F105" s="18"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="20">
@@ -12241,9 +11234,7 @@
       <c r="C106" s="7"/>
       <c r="D106" s="17"/>
       <c r="E106" s="19"/>
-      <c r="F106" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F106" s="18"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="20">
@@ -12254,9 +11245,7 @@
       <c r="C107" s="7"/>
       <c r="D107" s="17"/>
       <c r="E107" s="19"/>
-      <c r="F107" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F107" s="18"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="20">
@@ -12267,9 +11256,7 @@
       <c r="C108" s="7"/>
       <c r="D108" s="17"/>
       <c r="E108" s="19"/>
-      <c r="F108" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F108" s="18"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="20">
@@ -12280,9 +11267,7 @@
       <c r="C109" s="7"/>
       <c r="D109" s="17"/>
       <c r="E109" s="19"/>
-      <c r="F109" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F109" s="18"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="20">
@@ -12293,9 +11278,7 @@
       <c r="C110" s="7"/>
       <c r="D110" s="17"/>
       <c r="E110" s="19"/>
-      <c r="F110" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F110" s="18"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="20">
@@ -12306,9 +11289,7 @@
       <c r="C111" s="7"/>
       <c r="D111" s="17"/>
       <c r="E111" s="19"/>
-      <c r="F111" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F111" s="18"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="20">
@@ -12319,9 +11300,7 @@
       <c r="C112" s="7"/>
       <c r="D112" s="17"/>
       <c r="E112" s="19"/>
-      <c r="F112" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F112" s="18"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="20">
@@ -12332,9 +11311,7 @@
       <c r="C113" s="7"/>
       <c r="D113" s="17"/>
       <c r="E113" s="19"/>
-      <c r="F113" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F113" s="18"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="20">
@@ -12345,9 +11322,7 @@
       <c r="C114" s="7"/>
       <c r="D114" s="17"/>
       <c r="E114" s="19"/>
-      <c r="F114" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F114" s="18"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="20">
@@ -12358,9 +11333,7 @@
       <c r="C115" s="7"/>
       <c r="D115" s="17"/>
       <c r="E115" s="19"/>
-      <c r="F115" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F115" s="18"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="20">
@@ -12371,9 +11344,7 @@
       <c r="C116" s="7"/>
       <c r="D116" s="17"/>
       <c r="E116" s="19"/>
-      <c r="F116" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F116" s="18"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="20">
@@ -12384,9 +11355,7 @@
       <c r="C117" s="7"/>
       <c r="D117" s="17"/>
       <c r="E117" s="19"/>
-      <c r="F117" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F117" s="18"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="20">
@@ -12397,9 +11366,7 @@
       <c r="C118" s="7"/>
       <c r="D118" s="17"/>
       <c r="E118" s="19"/>
-      <c r="F118" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F118" s="18"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="20">
@@ -12410,9 +11377,7 @@
       <c r="C119" s="7"/>
       <c r="D119" s="17"/>
       <c r="E119" s="19"/>
-      <c r="F119" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F119" s="18"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="20">
@@ -12423,9 +11388,7 @@
       <c r="C120" s="7"/>
       <c r="D120" s="17"/>
       <c r="E120" s="19"/>
-      <c r="F120" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F120" s="18"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="20">
@@ -12436,9 +11399,7 @@
       <c r="C121" s="7"/>
       <c r="D121" s="17"/>
       <c r="E121" s="19"/>
-      <c r="F121" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F121" s="18"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="20">
@@ -12449,9 +11410,7 @@
       <c r="C122" s="7"/>
       <c r="D122" s="17"/>
       <c r="E122" s="19"/>
-      <c r="F122" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F122" s="18"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="20">
@@ -12462,9 +11421,7 @@
       <c r="C123" s="7"/>
       <c r="D123" s="17"/>
       <c r="E123" s="19"/>
-      <c r="F123" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F123" s="18"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="20">
@@ -12475,9 +11432,7 @@
       <c r="C124" s="7"/>
       <c r="D124" s="17"/>
       <c r="E124" s="19"/>
-      <c r="F124" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F124" s="18"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="20">
@@ -12488,9 +11443,7 @@
       <c r="C125" s="7"/>
       <c r="D125" s="17"/>
       <c r="E125" s="19"/>
-      <c r="F125" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F125" s="18"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="20">
@@ -12501,9 +11454,7 @@
       <c r="C126" s="7"/>
       <c r="D126" s="17"/>
       <c r="E126" s="19"/>
-      <c r="F126" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F126" s="18"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="20">
@@ -12514,9 +11465,7 @@
       <c r="C127" s="7"/>
       <c r="D127" s="17"/>
       <c r="E127" s="19"/>
-      <c r="F127" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F127" s="18"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="20">
@@ -12527,9 +11476,7 @@
       <c r="C128" s="7"/>
       <c r="D128" s="17"/>
       <c r="E128" s="19"/>
-      <c r="F128" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F128" s="18"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="20">
@@ -12540,9 +11487,7 @@
       <c r="C129" s="7"/>
       <c r="D129" s="17"/>
       <c r="E129" s="19"/>
-      <c r="F129" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F129" s="18"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="20">
@@ -12553,9 +11498,7 @@
       <c r="C130" s="7"/>
       <c r="D130" s="17"/>
       <c r="E130" s="19"/>
-      <c r="F130" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F130" s="18"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="20">
@@ -12566,9 +11509,7 @@
       <c r="C131" s="7"/>
       <c r="D131" s="17"/>
       <c r="E131" s="19"/>
-      <c r="F131" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F131" s="18"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="20">
@@ -12579,9 +11520,7 @@
       <c r="C132" s="7"/>
       <c r="D132" s="17"/>
       <c r="E132" s="19"/>
-      <c r="F132" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F132" s="18"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="20">
@@ -12592,9 +11531,7 @@
       <c r="C133" s="7"/>
       <c r="D133" s="17"/>
       <c r="E133" s="19"/>
-      <c r="F133" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F133" s="18"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="20">
@@ -12605,9 +11542,7 @@
       <c r="C134" s="7"/>
       <c r="D134" s="17"/>
       <c r="E134" s="19"/>
-      <c r="F134" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F134" s="18"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="20">
@@ -12618,9 +11553,7 @@
       <c r="C135" s="7"/>
       <c r="D135" s="17"/>
       <c r="E135" s="19"/>
-      <c r="F135" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F135" s="18"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="20">
@@ -12631,9 +11564,7 @@
       <c r="C136" s="7"/>
       <c r="D136" s="17"/>
       <c r="E136" s="19"/>
-      <c r="F136" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F136" s="18"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="20">
@@ -12644,9 +11575,7 @@
       <c r="C137" s="7"/>
       <c r="D137" s="17"/>
       <c r="E137" s="19"/>
-      <c r="F137" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F137" s="18"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="20">
@@ -12657,9 +11586,7 @@
       <c r="C138" s="7"/>
       <c r="D138" s="17"/>
       <c r="E138" s="19"/>
-      <c r="F138" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F138" s="18"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="20">
@@ -12670,9 +11597,7 @@
       <c r="C139" s="7"/>
       <c r="D139" s="17"/>
       <c r="E139" s="19"/>
-      <c r="F139" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F139" s="18"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="20">
@@ -12683,9 +11608,7 @@
       <c r="C140" s="7"/>
       <c r="D140" s="17"/>
       <c r="E140" s="19"/>
-      <c r="F140" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F140" s="18"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="20">
@@ -12696,9 +11619,7 @@
       <c r="C141" s="7"/>
       <c r="D141" s="17"/>
       <c r="E141" s="19"/>
-      <c r="F141" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F141" s="18"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="20">
@@ -12709,9 +11630,7 @@
       <c r="C142" s="7"/>
       <c r="D142" s="17"/>
       <c r="E142" s="19"/>
-      <c r="F142" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F142" s="18"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="20">
@@ -12722,9 +11641,7 @@
       <c r="C143" s="7"/>
       <c r="D143" s="17"/>
       <c r="E143" s="19"/>
-      <c r="F143" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F143" s="18"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="20">
@@ -12735,9 +11652,7 @@
       <c r="C144" s="7"/>
       <c r="D144" s="17"/>
       <c r="E144" s="19"/>
-      <c r="F144" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F144" s="18"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="20">
@@ -12748,9 +11663,7 @@
       <c r="C145" s="7"/>
       <c r="D145" s="17"/>
       <c r="E145" s="19"/>
-      <c r="F145" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F145" s="18"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="20">
@@ -12761,9 +11674,7 @@
       <c r="C146" s="7"/>
       <c r="D146" s="17"/>
       <c r="E146" s="19"/>
-      <c r="F146" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F146" s="18"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="20">
@@ -12774,9 +11685,7 @@
       <c r="C147" s="7"/>
       <c r="D147" s="17"/>
       <c r="E147" s="19"/>
-      <c r="F147" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F147" s="18"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="20">
@@ -12787,9 +11696,7 @@
       <c r="C148" s="7"/>
       <c r="D148" s="17"/>
       <c r="E148" s="19"/>
-      <c r="F148" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F148" s="18"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="20">
@@ -12800,9 +11707,7 @@
       <c r="C149" s="7"/>
       <c r="D149" s="17"/>
       <c r="E149" s="19"/>
-      <c r="F149" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F149" s="18"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="20">
@@ -12813,9 +11718,7 @@
       <c r="C150" s="7"/>
       <c r="D150" s="17"/>
       <c r="E150" s="19"/>
-      <c r="F150" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F150" s="18"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="20">
@@ -12826,9 +11729,7 @@
       <c r="C151" s="7"/>
       <c r="D151" s="17"/>
       <c r="E151" s="19"/>
-      <c r="F151" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F151" s="18"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="20">
@@ -12839,9 +11740,7 @@
       <c r="C152" s="7"/>
       <c r="D152" s="17"/>
       <c r="E152" s="19"/>
-      <c r="F152" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F152" s="18"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="20">
@@ -12852,9 +11751,7 @@
       <c r="C153" s="7"/>
       <c r="D153" s="17"/>
       <c r="E153" s="19"/>
-      <c r="F153" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F153" s="18"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="20">
@@ -12865,9 +11762,7 @@
       <c r="C154" s="7"/>
       <c r="D154" s="17"/>
       <c r="E154" s="19"/>
-      <c r="F154" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F154" s="18"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="20">
@@ -12878,9 +11773,7 @@
       <c r="C155" s="7"/>
       <c r="D155" s="17"/>
       <c r="E155" s="19"/>
-      <c r="F155" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F155" s="18"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="20">
@@ -12891,9 +11784,7 @@
       <c r="C156" s="7"/>
       <c r="D156" s="17"/>
       <c r="E156" s="19"/>
-      <c r="F156" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F156" s="18"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="20">
@@ -12904,9 +11795,7 @@
       <c r="C157" s="7"/>
       <c r="D157" s="17"/>
       <c r="E157" s="19"/>
-      <c r="F157" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F157" s="18"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="20">
@@ -12917,9 +11806,7 @@
       <c r="C158" s="7"/>
       <c r="D158" s="17"/>
       <c r="E158" s="19"/>
-      <c r="F158" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F158" s="18"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="20">
@@ -12930,9 +11817,7 @@
       <c r="C159" s="7"/>
       <c r="D159" s="17"/>
       <c r="E159" s="19"/>
-      <c r="F159" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F159" s="18"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="20">
@@ -12943,9 +11828,7 @@
       <c r="C160" s="7"/>
       <c r="D160" s="17"/>
       <c r="E160" s="19"/>
-      <c r="F160" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F160" s="18"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="20">
@@ -12956,9 +11839,7 @@
       <c r="C161" s="7"/>
       <c r="D161" s="17"/>
       <c r="E161" s="19"/>
-      <c r="F161" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="F161" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="8">
